--- a/Doc/상점기획.xlsx
+++ b/Doc/상점기획.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="184">
   <si>
     <t>인스턴스동안 자동공격 ( 싸다 )</t>
   </si>
@@ -420,294 +420,323 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노멀-&gt;매직-&gt;레어 로 GRADE가 바뀌는것은. GRADEUP이라고한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVOLUTION에는 아이템ID, GRADE만 같으면 재료로사용가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본뿌리를 바꾸는것이기 때문에(한계돌파) EVLOUTION과는 달리 손실이 발생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료역시 MAX ENCHANT, MAX EVOLUTION 이어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">손실은 ENCHANT손실로, GRADEUP의 경우 재료의 ENCHANT지수도 100이어야한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과는 0 ENCHANT, MAX EVOLUTION이 나온다. ( ENCHANT값의 손실이 발생한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EVOLUTION 후에는 ENCHANT가 0점이된다. </t>
+    <t>재료의 ENCHANT점수는0이라도된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟의 ENCHANT는 100이어야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또하나의 손실은 노멀(1)+노멀(1)-&gt;매직(2) 인데 레어(3)=매직(2)+노멀(1) 이 아니라, 매직(2)+매직(2)를 요구한다. (1,2,4배수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE가 소중한 이유이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크템1개 = 레어3개, 매직6개, 노멀12개 ( ENCHANT점수 제외하고도 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀++200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직++200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어++200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크는 애초에 ENCHANTMAX가 350포인트이다. (50+100+200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100포 = 노멀ENCHANT 100포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100포 = 노멀ENCHANT 200포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100포 = 노멀ENCHANT 300포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비통합계수 = 0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비통합계수 = 0.125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 =1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간클리어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/(1+1+1+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 24배강해짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 9배강해짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/(24+24+24+24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64/(24+24+24+24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +몇층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공략에걸리는시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀풀강 최대배수 8배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올장비 노멀++풀강정도했다고 다음 100레벨을 2시간만에 깨는게 말이나됨? 택도없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올장비 레어+풀강 하면 최대배수 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100층의난이도계수8 * 장비통합계수0.25 = 공격력2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100층클리어시간은 8/(2+2+2+2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N난이도에서 24*4부위 = 96개의 아이템을 주워야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N+100층을 클리어하는데 2시간 걸린단말임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대배수 24에 +100층이 2시간이란말은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(==같은레어를3개얻을확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크1/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0층난이도계수 1 * 0.25 = 공격력0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0층클리어시간은 1/(0.25+0.25+0.25+0.25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비통합계수가 0.25일때 +0층은 1시간클리어. + 100층은 8시간클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도계수8이면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음100층을깨는데는 8배의 시간이걸린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8배를들여서 다음 100층을 깨는건 문제가 안된다. 단 100층깨서 나오는템이 구려야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은랩 8번 파밍하는게 더 나을정도로 구려야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번파밍하면 최대배수 8급아이템 = 다음100층 배수1급아이템 // 단 속도는 점점강해지는 8번파밍이더빠르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 왼쪽의 설정은 어떤층을깨서 얻는템이 동층클리어가 4시간이걸릴정도로 구리게설정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32시간 보람들여서 +100층을 깰이유가없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8배수정도는되야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8배수나 12배수정도되야 +100깨는데 4시간쯤 걸리게 해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복파밍, 도전파밍효율을 맞추기위해 마찬가지로 1배수때는 +0깨는데 4시간.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적절 장통계는 1/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기템을 8배수(100레벨템)으로 지급해주면.  100레벨클리어에 4시간이걸린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더좋은거 지급해줘도되지만. 최초100층 클리어해서 나오는템이 처음지급받은거보다 구리면 씁쓸하잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본1포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공략에걸리는시간(4템을1속성몰빵했다고가정.x4를한다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1속성의공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,24,12,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본뿌리를 바꾸는것이기 때문에 한계돌파와는 달리 손실이 발생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +, ++이 되는과정은 한계돌파라고한다.(ENCHANT의연장선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계돌파에는 아이템ID, GRADE만 같으면 재료로사용가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한계돌파 후에는 ENCHANT가 0점이된다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>( 재료의 ENCHANT는 0이었으니까 ENCHANT점수의 손실은 없다.)</t>
-  </si>
-  <si>
-    <t>타겟은 MAX ENCHANT, MAX EVOLUTION 이어야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료의 ENCHANT점수는0이라도된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟의 ENCHANT는 100이어야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>또하나의 손실은 노멀(1)+노멀(1)-&gt;매직(2) 인데 레어(3)=매직(2)+노멀(1) 이 아니라, 매직(2)+매직(2)를 요구한다. (1,2,4배수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE가 소중한 이유이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(같은템소모를통한EVOLUTION과정이없음. 대신 드랍율최악)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +, ++이 되는과정은 EVOLUTION이라고한다.(ENCHANT의연장선)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADEUP에는 MAX EC, MAX EV, 상태에서 아이템ID, EVOLUTION, 만 같으면된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크템1개 = 레어3개, 매직6개, 노멀12개 ( ENCHANT점수 제외하고도 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENCHANT재료소모시에는 재료의 ENCHANT정도와 EVOLUTION정도는 따지지않는다. 오로지 GRADE만따진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀++200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직++200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어++200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크는 애초에 ENCHANTMAX가 350포인트이다. (50+100+200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100포 = 노멀ENCHANT 100포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100포 = 노멀ENCHANT 200포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100포 = 노멀ENCHANT 300포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비통합계수 = 0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비통합계수 = 0.125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 =1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2시간클리어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/(1+1+1+1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 24배강해짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 9배강해짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/(24+24+24+24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64/(24+24+24+24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +몇층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공략에걸리는시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장통계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대배수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀풀강 최대배수 8배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올장비 노멀++풀강정도했다고 다음 100레벨을 2시간만에 깨는게 말이나됨? 택도없음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올장비 레어+풀강 하면 최대배수 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100층의난이도계수8 * 장비통합계수0.25 = 공격력2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100층클리어시간은 8/(2+2+2+2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N난이도에서 24*4부위 = 96개의 아이템을 주워야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N+100층을 클리어하는데 2시간 걸린단말임.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대배수 24에 +100층이 2시간이란말은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(==같은레어를3개얻을확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크1/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0층난이도계수 1 * 0.25 = 공격력0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0층클리어시간은 1/(0.25+0.25+0.25+0.25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비통합계수가 0.25일때 +0층은 1시간클리어. + 100층은 8시간클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난이도계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난이도계수8이면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음100층을깨는데는 8배의 시간이걸린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8배를들여서 다음 100층을 깨는건 문제가 안된다. 단 100층깨서 나오는템이 구려야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은랩 8번 파밍하는게 더 나을정도로 구려야함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8번파밍하면 최대배수 8급아이템 = 다음100층 배수1급아이템 // 단 속도는 점점강해지는 8번파밍이더빠르다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로 왼쪽의 설정은 어떤층을깨서 얻는템이 동층클리어가 4시간이걸릴정도로 구리게설정.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32시간 보람들여서 +100층을 깰이유가없음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">8배수정도는되야 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8배수나 12배수정도되야 +100깨는데 4시간쯤 걸리게 해보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복파밍, 도전파밍효율을 맞추기위해 마찬가지로 1배수때는 +0깨는데 4시간.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적절 장통계는 1/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기템을 8배수(100레벨템)으로 지급해주면.  100레벨클리어에 4시간이걸린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더좋은거 지급해줘도되지만. 최초100층 클리어해서 나오는템이 처음지급받은거보다 구리면 씁쓸하잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(같은템소모를통한한계돌파과정이없음. 대신 드랍율최악)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀-&gt;매직-&gt;레어 로 GRADE가 바뀌는것은. 진화라고한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">손실은 ENCHANT손실로, 진화의 경우 재료의 ENCHANT지수도 100이어야한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟은 MAX ENCHANT, MAX 한돌 상태여야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료역시 MAX ENCHANT, MAX 한돌 상태여야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과는 0 ENCHANT, MAX 한돌이 나온다. ( ENCHANT값의 손실이 발생한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진화에는 MAX EC, MAX 한돌, 상태에서 아이템ID, GRADE, 한돌정도가 같으면된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENCHANT재료소모시에는 재료의 ENCHANT정도와 한돌정도는 따지지않는다. 오로지 GRADE만따진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,10 +745,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="187" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +774,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -803,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,19 +865,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="A23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
@@ -1638,13 +1681,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Y76"/>
+  <dimension ref="A2:Y86"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E41" workbookViewId="0">
-      <selection activeCell="T60" sqref="T60"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E51" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:16">
       <c r="G2" t="s">
@@ -1692,7 +1738,7 @@
         <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1721,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1747,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1773,7 +1819,7 @@
         <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1799,7 +1845,7 @@
         <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1825,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1874,10 +1920,13 @@
         <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:25">
+      <c r="A19" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="Y19" t="s">
         <v>92</v>
       </c>
@@ -1902,7 +1951,7 @@
     <row r="21" spans="1:25">
       <c r="I21" s="7"/>
       <c r="L21" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -1925,13 +1974,13 @@
         <v>78</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="T22" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -1960,7 +2009,7 @@
         <v>8</v>
       </c>
       <c r="T23" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -1989,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2012,13 +2061,13 @@
         <v>80</v>
       </c>
       <c r="M25" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="T25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2049,7 +2098,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2073,12 +2122,12 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
         <v>73</v>
@@ -2099,25 +2148,25 @@
         <v>84</v>
       </c>
       <c r="M28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" t="s">
+        <v>118</v>
+      </c>
+      <c r="T28" t="s">
         <v>126</v>
-      </c>
-      <c r="P28" t="s">
-        <v>131</v>
-      </c>
-      <c r="T28" t="s">
-        <v>139</v>
       </c>
       <c r="V28">
         <f>(8/(24+24+24+24))*60</f>
         <v>5</v>
       </c>
       <c r="W28" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2141,19 +2190,19 @@
         <v>24</v>
       </c>
       <c r="T29" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="V29">
         <f>(64/(24+24+24+24))*60</f>
         <v>40</v>
       </c>
       <c r="W29" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2179,71 +2228,74 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M31" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="M32">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="J37" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="K37" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="M37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>146</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="M38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -2259,9 +2311,9 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="J40" s="11">
         <f>J39/SUM($J$39:$M$39)</f>
@@ -2280,34 +2332,42 @@
         <v>1.1764705882352941E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="S49" t="s">
+        <v>164</v>
+      </c>
+      <c r="T49" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2315,49 +2375,56 @@
         <f>SQRT(8)</f>
         <v>2.8284271247461903</v>
       </c>
+      <c r="S50">
+        <v>100</v>
+      </c>
+      <c r="T50">
+        <f>POWER(R54,S50/100)*Q54</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H53" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M53" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="N53" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="P53" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="Q53" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="R53" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="T53" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2397,55 +2464,61 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <f>0.25/4</f>
+        <f>1/16</f>
         <v>6.25E-2</v>
       </c>
       <c r="R54">
         <v>8</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G55" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H55" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M55" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="N55" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>143</v>
+        <v>129</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="R55" t="s">
+        <v>166</v>
+      </c>
+      <c r="S55" t="s">
+        <v>168</v>
       </c>
       <c r="T55" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2453,38 +2526,48 @@
         <v>0</v>
       </c>
       <c r="B56" s="8">
-        <f>POWER(8,(A56)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" ref="B56:B76" si="0">POWER(8,(A56)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
         <v>1</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8">
-        <f>POWER(8,(D56)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" ref="E56:E76" si="1">POWER(8,(D56)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
         <v>2</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8">
-        <f>POWER(8,(G56)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" ref="H56:H76" si="2">POWER(8,(G56)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
         <v>0.25</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8">
-        <f>POWER(8,(J56)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" ref="K56:K76" si="3">POWER(8,(J56)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
         <v>0.25</v>
       </c>
       <c r="M56" s="8"/>
       <c r="N56" s="10">
-        <f>POWER(8,(M56)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" ref="N56:N76" si="4">POWER(8,(M56)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
         <v>6</v>
       </c>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="10">
-        <f>POWER(R$54,(P56)/100)/(POWER(R$54,P$56)*Q$54*P$54*4)</f>
-        <v>4</v>
+      <c r="P56">
+        <v>-100</v>
+      </c>
+      <c r="Q56" s="14">
+        <f t="shared" ref="Q56:Q65" si="5">POWER(R$54,(P56)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R56">
+        <f t="shared" ref="R56:R65" si="6">POWER(R$54,(P56)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="S56">
+        <f t="shared" ref="S56:S65" si="7">(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
       <c r="T56" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2492,7 +2575,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="8">
-        <f>POWER(8,(A57)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>1.2311444133449163</v>
       </c>
       <c r="C57" s="8"/>
@@ -2500,14 +2583,14 @@
         <v>10</v>
       </c>
       <c r="E57" s="8">
-        <f>POWER(8,(D57)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>2.4622888266898326</v>
       </c>
       <c r="G57" s="8">
         <v>10</v>
       </c>
       <c r="H57" s="8">
-        <f>POWER(8,(G57)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>0.30778610333622908</v>
       </c>
       <c r="I57" s="8"/>
@@ -2515,25 +2598,33 @@
         <v>10</v>
       </c>
       <c r="K57" s="8">
-        <f>POWER(8,(J57)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>0.30778610333622908</v>
       </c>
       <c r="M57" s="8">
         <v>10</v>
       </c>
       <c r="N57" s="8">
-        <f>POWER(8,(M57)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>7.3868664800694983</v>
       </c>
-      <c r="P57" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="8">
-        <f t="shared" ref="Q57:Q76" si="0">POWER(R$54,(P57)/100)/(POWER(R$54,P$56)*Q$54*P$54*4)</f>
-        <v>4.9245776533796652</v>
+      <c r="P57">
+        <v>-90</v>
+      </c>
+      <c r="Q57" s="14">
+        <f t="shared" si="5"/>
+        <v>0.61557220667245827</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="6"/>
+        <v>0.12311444133449165</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
       <c r="T57" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2541,7 +2632,7 @@
         <v>20</v>
       </c>
       <c r="B58" s="8">
-        <f>POWER(8,(A58)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>1.515716566510398</v>
       </c>
       <c r="C58" s="8"/>
@@ -2549,14 +2640,14 @@
         <v>20</v>
       </c>
       <c r="E58" s="8">
-        <f>POWER(8,(D58)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>3.031433133020796</v>
       </c>
       <c r="G58" s="8">
         <v>20</v>
       </c>
       <c r="H58" s="8">
-        <f>POWER(8,(G58)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>0.3789291416275995</v>
       </c>
       <c r="I58" s="8"/>
@@ -2564,25 +2655,33 @@
         <v>20</v>
       </c>
       <c r="K58" s="8">
-        <f>POWER(8,(J58)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>0.3789291416275995</v>
       </c>
       <c r="M58" s="8">
         <v>20</v>
       </c>
       <c r="N58" s="8">
-        <f>POWER(8,(M58)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>9.0942993990623879</v>
       </c>
-      <c r="P58" s="8">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="8">
-        <f t="shared" si="0"/>
-        <v>6.062866266041592</v>
+      <c r="P58">
+        <v>-80</v>
+      </c>
+      <c r="Q58" s="14">
+        <f t="shared" si="5"/>
+        <v>0.75785828325519911</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="6"/>
+        <v>0.15157165665103983</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
       <c r="T58" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2590,7 +2689,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="8">
-        <f>POWER(8,(A59)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>1.8660659830736148</v>
       </c>
       <c r="C59" s="8"/>
@@ -2598,14 +2697,14 @@
         <v>30</v>
       </c>
       <c r="E59" s="8">
-        <f>POWER(8,(D59)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>3.7321319661472296</v>
       </c>
       <c r="G59" s="8">
         <v>30</v>
       </c>
       <c r="H59" s="8">
-        <f>POWER(8,(G59)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>0.46651649576840371</v>
       </c>
       <c r="I59" s="8"/>
@@ -2613,25 +2712,33 @@
         <v>30</v>
       </c>
       <c r="K59" s="8">
-        <f>POWER(8,(J59)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>0.46651649576840371</v>
       </c>
       <c r="M59" s="8">
         <v>30</v>
       </c>
       <c r="N59" s="8">
-        <f>POWER(8,(M59)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>11.19639589844169</v>
       </c>
-      <c r="P59" s="8">
-        <v>30</v>
-      </c>
-      <c r="Q59" s="8">
-        <f t="shared" si="0"/>
-        <v>7.4642639322944593</v>
+      <c r="P59">
+        <v>-70</v>
+      </c>
+      <c r="Q59" s="14">
+        <f t="shared" si="5"/>
+        <v>0.93303299153680763</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="6"/>
+        <v>0.18660659830736154</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
       <c r="T59" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2639,7 +2746,7 @@
         <v>40</v>
       </c>
       <c r="B60" s="8">
-        <f>POWER(8,(A60)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>2.2973967099940702</v>
       </c>
       <c r="C60" s="8"/>
@@ -2647,14 +2754,14 @@
         <v>40</v>
       </c>
       <c r="E60" s="8">
-        <f>POWER(8,(D60)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>4.5947934199881404</v>
       </c>
       <c r="G60" s="8">
         <v>40</v>
       </c>
       <c r="H60" s="8">
-        <f>POWER(8,(G60)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>0.57434917749851755</v>
       </c>
       <c r="I60" s="8"/>
@@ -2662,25 +2769,33 @@
         <v>40</v>
       </c>
       <c r="K60" s="8">
-        <f>POWER(8,(J60)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>0.57434917749851755</v>
       </c>
       <c r="M60" s="8">
         <v>40</v>
       </c>
       <c r="N60" s="8">
-        <f>POWER(8,(M60)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>13.784380259964422</v>
       </c>
-      <c r="P60" s="8">
-        <v>40</v>
-      </c>
-      <c r="Q60" s="8">
-        <f t="shared" si="0"/>
-        <v>9.1895868399762808</v>
+      <c r="P60">
+        <v>-60</v>
+      </c>
+      <c r="Q60" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1486983549970351</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="6"/>
+        <v>0.22973967099940701</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
       <c r="T60" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2688,7 +2803,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="8">
-        <f>POWER(8,(A61)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="C61" s="8"/>
@@ -2696,14 +2811,14 @@
         <v>50</v>
       </c>
       <c r="E61" s="8">
-        <f>POWER(8,(D61)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>5.6568542494923806</v>
       </c>
       <c r="G61" s="8">
         <v>50</v>
       </c>
       <c r="H61" s="8">
-        <f>POWER(8,(G61)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="I61" s="8"/>
@@ -2711,22 +2826,30 @@
         <v>50</v>
       </c>
       <c r="K61" s="8">
-        <f>POWER(8,(J61)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="M61" s="8">
         <v>50</v>
       </c>
       <c r="N61" s="8">
-        <f>POWER(8,(M61)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>16.970562748477143</v>
       </c>
-      <c r="P61" s="8">
-        <v>50</v>
-      </c>
-      <c r="Q61" s="8">
-        <f t="shared" si="0"/>
-        <v>11.313708498984761</v>
+      <c r="P61">
+        <v>-50</v>
+      </c>
+      <c r="Q61" s="14">
+        <f t="shared" si="5"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="6"/>
+        <v>0.28284271247461901</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2734,7 +2857,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="8">
-        <f>POWER(8,(A62)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>3.4822022531844965</v>
       </c>
       <c r="C62" s="8"/>
@@ -2742,14 +2865,14 @@
         <v>60</v>
       </c>
       <c r="E62" s="8">
-        <f>POWER(8,(D62)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>6.964404506368993</v>
       </c>
       <c r="G62" s="8">
         <v>60</v>
       </c>
       <c r="H62" s="8">
-        <f>POWER(8,(G62)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>0.87055056329612412</v>
       </c>
       <c r="I62" s="8"/>
@@ -2757,25 +2880,33 @@
         <v>60</v>
       </c>
       <c r="K62" s="8">
-        <f>POWER(8,(J62)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>0.87055056329612412</v>
       </c>
       <c r="M62" s="8">
         <v>60</v>
       </c>
       <c r="N62" s="8">
-        <f>POWER(8,(M62)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>20.893213519106979</v>
       </c>
-      <c r="P62" s="8">
-        <v>60</v>
-      </c>
-      <c r="Q62" s="8">
-        <f t="shared" si="0"/>
-        <v>13.928809012737986</v>
+      <c r="P62">
+        <v>-40</v>
+      </c>
+      <c r="Q62" s="14">
+        <f t="shared" si="5"/>
+        <v>1.7411011265922482</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="6"/>
+        <v>0.34822022531844965</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
       <c r="T62" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2783,7 +2914,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="8">
-        <f>POWER(8,(A63)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>4.2870938501451716</v>
       </c>
       <c r="C63" s="8"/>
@@ -2791,14 +2922,14 @@
         <v>70</v>
       </c>
       <c r="E63" s="8">
-        <f>POWER(8,(D63)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>8.5741877002903433</v>
       </c>
       <c r="G63" s="8">
         <v>70</v>
       </c>
       <c r="H63" s="8">
-        <f>POWER(8,(G63)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>1.0717734625362929</v>
       </c>
       <c r="I63" s="8"/>
@@ -2806,25 +2937,33 @@
         <v>70</v>
       </c>
       <c r="K63" s="8">
-        <f>POWER(8,(J63)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>1.0717734625362929</v>
       </c>
       <c r="M63" s="8">
         <v>70</v>
       </c>
       <c r="N63" s="8">
-        <f>POWER(8,(M63)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>25.722563100871032</v>
       </c>
-      <c r="P63" s="8">
-        <v>70</v>
-      </c>
-      <c r="Q63" s="8">
-        <f t="shared" si="0"/>
-        <v>17.148375400580687</v>
+      <c r="P63">
+        <v>-30</v>
+      </c>
+      <c r="Q63" s="14">
+        <f t="shared" si="5"/>
+        <v>2.1435469250725863</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="6"/>
+        <v>0.42870938501451727</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
       <c r="T63" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2832,7 +2971,7 @@
         <v>80</v>
       </c>
       <c r="B64" s="8">
-        <f>POWER(8,(A64)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>5.2780316430915768</v>
       </c>
       <c r="C64" s="8"/>
@@ -2840,14 +2979,14 @@
         <v>80</v>
       </c>
       <c r="E64" s="8">
-        <f>POWER(8,(D64)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>10.556063286183154</v>
       </c>
       <c r="G64" s="8">
         <v>80</v>
       </c>
       <c r="H64" s="8">
-        <f>POWER(8,(G64)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>1.3195079107728942</v>
       </c>
       <c r="I64" s="8"/>
@@ -2855,25 +2994,33 @@
         <v>80</v>
       </c>
       <c r="K64" s="8">
-        <f>POWER(8,(J64)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>1.3195079107728942</v>
       </c>
       <c r="M64" s="8">
         <v>80</v>
       </c>
       <c r="N64" s="8">
-        <f>POWER(8,(M64)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>31.668189858549461</v>
       </c>
-      <c r="P64" s="8">
-        <v>80</v>
-      </c>
-      <c r="Q64" s="8">
-        <f t="shared" si="0"/>
-        <v>21.112126572366307</v>
+      <c r="P64">
+        <v>-20</v>
+      </c>
+      <c r="Q64" s="14">
+        <f t="shared" si="5"/>
+        <v>2.6390158215457888</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="6"/>
+        <v>0.52780316430915775</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
       <c r="T64" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2881,7 +3028,7 @@
         <v>90</v>
       </c>
       <c r="B65" s="8">
-        <f>POWER(8,(A65)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>6.4980191708498829</v>
       </c>
       <c r="C65" s="8"/>
@@ -2889,14 +3036,14 @@
         <v>90</v>
       </c>
       <c r="E65" s="8">
-        <f>POWER(8,(D65)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>12.996038341699766</v>
       </c>
       <c r="G65" s="8">
         <v>90</v>
       </c>
       <c r="H65" s="8">
-        <f>POWER(8,(G65)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>1.6245047927124707</v>
       </c>
       <c r="I65" s="8"/>
@@ -2904,22 +3051,30 @@
         <v>90</v>
       </c>
       <c r="K65" s="8">
-        <f>POWER(8,(J65)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>1.6245047927124707</v>
       </c>
       <c r="M65" s="8">
         <v>90</v>
       </c>
       <c r="N65" s="8">
-        <f>POWER(8,(M65)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>38.988115025099297</v>
       </c>
-      <c r="P65" s="8">
-        <v>90</v>
-      </c>
-      <c r="Q65" s="8">
-        <f t="shared" si="0"/>
-        <v>25.992076683399532</v>
+      <c r="P65">
+        <v>-10</v>
+      </c>
+      <c r="Q65" s="14">
+        <f t="shared" si="5"/>
+        <v>3.2490095854249419</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="6"/>
+        <v>0.64980191708498836</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2927,7 +3082,7 @@
         <v>100</v>
       </c>
       <c r="B66" s="8">
-        <f>POWER(8,(A66)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C66" s="8"/>
@@ -2935,14 +3090,14 @@
         <v>100</v>
       </c>
       <c r="E66" s="8">
-        <f>POWER(8,(D66)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="G66" s="8">
         <v>100</v>
       </c>
       <c r="H66" s="9">
-        <f>POWER(8,(G66)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I66" s="8"/>
@@ -2950,22 +3105,28 @@
         <v>100</v>
       </c>
       <c r="K66" s="9">
-        <f>POWER(8,(J66)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M66" s="8">
         <v>100</v>
       </c>
       <c r="N66" s="9">
-        <f>POWER(8,(M66)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="P66" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q66" s="9">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="10">
+        <f>POWER(R$54,(P66)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <f>POWER(R$54,(P66)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="S66">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2973,7 +3134,7 @@
         <v>110</v>
       </c>
       <c r="B67" s="8">
-        <f>POWER(8,(A67)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>9.8491553067593287</v>
       </c>
       <c r="C67" s="8"/>
@@ -2981,14 +3142,14 @@
         <v>110</v>
       </c>
       <c r="E67" s="8">
-        <f>POWER(8,(D67)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>19.698310613518657</v>
       </c>
       <c r="G67" s="8">
         <v>110</v>
       </c>
       <c r="H67" s="8">
-        <f>POWER(8,(G67)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>2.4622888266898322</v>
       </c>
       <c r="I67" s="8"/>
@@ -2996,22 +3157,30 @@
         <v>110</v>
       </c>
       <c r="K67" s="8">
-        <f>POWER(8,(J67)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>2.4622888266898322</v>
       </c>
       <c r="M67" s="8">
         <v>110</v>
       </c>
       <c r="N67" s="8">
-        <f>POWER(8,(M67)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>59.094931840555972</v>
       </c>
       <c r="P67" s="8">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="Q67" s="8">
-        <f t="shared" si="0"/>
-        <v>39.396621227037315</v>
+        <f>POWER(R$54,(P67)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>4.9245776533796652</v>
+      </c>
+      <c r="R67">
+        <f>POWER(R$54,(P67)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>0.98491553067593307</v>
+      </c>
+      <c r="S67">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3019,7 +3188,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="8">
-        <f>POWER(8,(A68)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>12.125732532083184</v>
       </c>
       <c r="C68" s="8"/>
@@ -3027,14 +3196,14 @@
         <v>120</v>
       </c>
       <c r="E68" s="8">
-        <f>POWER(8,(D68)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>24.251465064166368</v>
       </c>
       <c r="G68" s="8">
         <v>120</v>
       </c>
       <c r="H68" s="8">
-        <f>POWER(8,(G68)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>3.031433133020796</v>
       </c>
       <c r="I68" s="8"/>
@@ -3042,25 +3211,33 @@
         <v>120</v>
       </c>
       <c r="K68" s="8">
-        <f>POWER(8,(J68)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>3.031433133020796</v>
       </c>
       <c r="M68" s="8">
         <v>120</v>
       </c>
       <c r="N68" s="8">
-        <f>POWER(8,(M68)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>72.754395192499103</v>
       </c>
       <c r="P68" s="8">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="Q68" s="8">
-        <f t="shared" si="0"/>
-        <v>48.502930128332736</v>
+        <f>POWER(R$54,(P68)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>6.062866266041592</v>
+      </c>
+      <c r="R68">
+        <f>POWER(R$54,(P68)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.2125732532083184</v>
+      </c>
+      <c r="S68">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
       <c r="T68" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3068,7 +3245,7 @@
         <v>130</v>
       </c>
       <c r="B69" s="8">
-        <f>POWER(8,(A69)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>14.928527864588917</v>
       </c>
       <c r="C69" s="8"/>
@@ -3076,14 +3253,14 @@
         <v>130</v>
       </c>
       <c r="E69" s="8">
-        <f>POWER(8,(D69)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>29.857055729177834</v>
       </c>
       <c r="G69" s="8">
         <v>130</v>
       </c>
       <c r="H69" s="8">
-        <f>POWER(8,(G69)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>3.7321319661472292</v>
       </c>
       <c r="I69" s="8"/>
@@ -3091,25 +3268,33 @@
         <v>130</v>
       </c>
       <c r="K69" s="8">
-        <f>POWER(8,(J69)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>3.7321319661472292</v>
       </c>
       <c r="M69" s="8">
         <v>130</v>
       </c>
       <c r="N69" s="8">
-        <f>POWER(8,(M69)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>89.571167187533504</v>
       </c>
       <c r="P69" s="8">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="Q69" s="8">
-        <f t="shared" si="0"/>
-        <v>59.714111458355667</v>
+        <f>POWER(R$54,(P69)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>7.4642639322944593</v>
+      </c>
+      <c r="R69">
+        <f>POWER(R$54,(P69)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.4928527864588919</v>
+      </c>
+      <c r="S69">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
       <c r="T69" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3117,7 +3302,7 @@
         <v>140</v>
       </c>
       <c r="B70" s="8">
-        <f>POWER(8,(A70)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>18.379173679952551</v>
       </c>
       <c r="C70" s="8"/>
@@ -3125,14 +3310,14 @@
         <v>140</v>
       </c>
       <c r="E70" s="8">
-        <f>POWER(8,(D70)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>36.758347359905102</v>
       </c>
       <c r="G70" s="8">
         <v>140</v>
       </c>
       <c r="H70" s="8">
-        <f>POWER(8,(G70)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>4.5947934199881377</v>
       </c>
       <c r="I70" s="8"/>
@@ -3140,25 +3325,33 @@
         <v>140</v>
       </c>
       <c r="K70" s="8">
-        <f>POWER(8,(J70)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>4.5947934199881377</v>
       </c>
       <c r="M70" s="8">
         <v>140</v>
       </c>
       <c r="N70" s="8">
-        <f>POWER(8,(M70)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>110.27504207971531</v>
       </c>
       <c r="P70" s="8">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="Q70" s="8">
-        <f t="shared" si="0"/>
-        <v>73.516694719810204</v>
+        <f>POWER(R$54,(P70)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>9.1895868399762808</v>
+      </c>
+      <c r="R70">
+        <f>POWER(R$54,(P70)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.8379173679952561</v>
+      </c>
+      <c r="S70">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
       <c r="T70" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3166,7 +3359,7 @@
         <v>150</v>
       </c>
       <c r="B71" s="8">
-        <f>POWER(8,(A71)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>22.627416997969508</v>
       </c>
       <c r="C71" s="8"/>
@@ -3174,14 +3367,14 @@
         <v>150</v>
       </c>
       <c r="E71" s="8">
-        <f>POWER(8,(D71)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>45.254833995939016</v>
       </c>
       <c r="G71" s="8">
         <v>150</v>
       </c>
       <c r="H71" s="8">
-        <f>POWER(8,(G71)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>5.656854249492377</v>
       </c>
       <c r="I71" s="8"/>
@@ -3189,25 +3382,33 @@
         <v>150</v>
       </c>
       <c r="K71" s="8">
-        <f>POWER(8,(J71)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>5.656854249492377</v>
       </c>
       <c r="M71" s="8">
         <v>150</v>
       </c>
       <c r="N71" s="8">
-        <f>POWER(8,(M71)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>135.76450198781706</v>
       </c>
       <c r="P71" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q71" s="8">
-        <f t="shared" si="0"/>
-        <v>90.509667991878032</v>
+        <f>POWER(R$54,(P71)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>11.313708498984761</v>
+      </c>
+      <c r="R71">
+        <f>POWER(R$54,(P71)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>2.2627416997969521</v>
+      </c>
+      <c r="S71">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
       <c r="T71" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3215,7 +3416,7 @@
         <v>160</v>
       </c>
       <c r="B72" s="8">
-        <f>POWER(8,(A72)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>27.857618025475972</v>
       </c>
       <c r="C72" s="8"/>
@@ -3223,14 +3424,14 @@
         <v>160</v>
       </c>
       <c r="E72" s="8">
-        <f>POWER(8,(D72)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>55.715236050951944</v>
       </c>
       <c r="G72" s="8">
         <v>160</v>
       </c>
       <c r="H72" s="8">
-        <f>POWER(8,(G72)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>6.964404506368993</v>
       </c>
       <c r="I72" s="8"/>
@@ -3238,25 +3439,33 @@
         <v>160</v>
       </c>
       <c r="K72" s="8">
-        <f>POWER(8,(J72)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>6.964404506368993</v>
       </c>
       <c r="M72" s="8">
         <v>160</v>
       </c>
       <c r="N72" s="8">
-        <f>POWER(8,(M72)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>167.14570815285583</v>
       </c>
       <c r="P72" s="8">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="Q72" s="8">
-        <f t="shared" si="0"/>
-        <v>111.43047210190389</v>
+        <f>POWER(R$54,(P72)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>13.928809012737986</v>
+      </c>
+      <c r="R72">
+        <f>POWER(R$54,(P72)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>2.7857618025475972</v>
+      </c>
+      <c r="S72">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
       <c r="T72" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3264,7 +3473,7 @@
         <v>170</v>
       </c>
       <c r="B73" s="8">
-        <f>POWER(8,(A73)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>34.296750801161366</v>
       </c>
       <c r="C73" s="8"/>
@@ -3272,14 +3481,14 @@
         <v>170</v>
       </c>
       <c r="E73" s="8">
-        <f>POWER(8,(D73)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>68.593501602322732</v>
       </c>
       <c r="G73" s="8">
         <v>170</v>
       </c>
       <c r="H73" s="8">
-        <f>POWER(8,(G73)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>8.5741877002903415</v>
       </c>
       <c r="I73" s="8"/>
@@ -3287,22 +3496,30 @@
         <v>170</v>
       </c>
       <c r="K73" s="8">
-        <f>POWER(8,(J73)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>8.5741877002903415</v>
       </c>
       <c r="M73" s="8">
         <v>170</v>
       </c>
       <c r="N73" s="8">
-        <f>POWER(8,(M73)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>205.7805048069682</v>
       </c>
       <c r="P73" s="8">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="Q73" s="8">
-        <f t="shared" si="0"/>
-        <v>137.18700320464546</v>
+        <f>POWER(R$54,(P73)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>17.148375400580687</v>
+      </c>
+      <c r="R73">
+        <f>POWER(R$54,(P73)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>3.4296750801161373</v>
+      </c>
+      <c r="S73">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3310,7 +3527,7 @@
         <v>180</v>
       </c>
       <c r="B74" s="8">
-        <f>POWER(8,(A74)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>42.2242531447326</v>
       </c>
       <c r="C74" s="8"/>
@@ -3318,14 +3535,14 @@
         <v>180</v>
       </c>
       <c r="E74" s="8">
-        <f>POWER(8,(D74)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>84.4485062894652</v>
       </c>
       <c r="G74" s="8">
         <v>180</v>
       </c>
       <c r="H74" s="8">
-        <f>POWER(8,(G74)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>10.55606328618315</v>
       </c>
       <c r="I74" s="8"/>
@@ -3333,25 +3550,33 @@
         <v>180</v>
       </c>
       <c r="K74" s="8">
-        <f>POWER(8,(J74)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>10.55606328618315</v>
       </c>
       <c r="M74" s="8">
         <v>180</v>
       </c>
       <c r="N74" s="8">
-        <f>POWER(8,(M74)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>253.3455188683956</v>
       </c>
       <c r="P74" s="8">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q74" s="8">
-        <f t="shared" si="0"/>
-        <v>168.8970125789304</v>
+        <f>POWER(R$54,(P74)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>21.112126572366307</v>
+      </c>
+      <c r="R74">
+        <f>POWER(R$54,(P74)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>4.2224253144732611</v>
+      </c>
+      <c r="S74">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
       <c r="T74" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3359,7 +3584,7 @@
         <v>190</v>
       </c>
       <c r="B75" s="8">
-        <f>POWER(8,(A75)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>51.984153366799056</v>
       </c>
       <c r="C75" s="8"/>
@@ -3367,14 +3592,14 @@
         <v>190</v>
       </c>
       <c r="E75" s="8">
-        <f>POWER(8,(D75)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>103.96830673359811</v>
       </c>
       <c r="G75" s="8">
         <v>190</v>
       </c>
       <c r="H75" s="8">
-        <f>POWER(8,(G75)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>12.996038341699764</v>
       </c>
       <c r="I75" s="8"/>
@@ -3382,25 +3607,33 @@
         <v>190</v>
       </c>
       <c r="K75" s="8">
-        <f>POWER(8,(J75)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>12.996038341699764</v>
       </c>
       <c r="M75" s="8">
         <v>190</v>
       </c>
       <c r="N75" s="8">
-        <f>POWER(8,(M75)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>311.90492020079438</v>
       </c>
       <c r="P75" s="8">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="8">
-        <f t="shared" si="0"/>
-        <v>207.93661346719622</v>
+        <f>POWER(R$54,(P75)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>25.992076683399532</v>
+      </c>
+      <c r="R75">
+        <f>POWER(R$54,(P75)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>5.198415336679906</v>
+      </c>
+      <c r="S75">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
       <c r="T75" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3408,7 +3641,7 @@
         <v>200</v>
       </c>
       <c r="B76" s="8">
-        <f>POWER(8,(A76)/100)/(POWER(8,A$56)*B$54*A$54*4)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C76" s="8"/>
@@ -3416,14 +3649,14 @@
         <v>200</v>
       </c>
       <c r="E76" s="8">
-        <f>POWER(8,(D76)/100)/(POWER(8,D$56)*E$54*D$54*4)</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="G76" s="8">
         <v>200</v>
       </c>
       <c r="H76" s="8">
-        <f>POWER(8,(G76)/100)/(POWER(8,G$56)*H$54*G$54*4)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I76" s="8"/>
@@ -3431,29 +3664,208 @@
         <v>200</v>
       </c>
       <c r="K76" s="8">
-        <f>POWER(8,(J76)/100)/(POWER(8,J$56)*K$54*J$54*4)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M76" s="8">
         <v>200</v>
       </c>
       <c r="N76" s="8">
-        <f>POWER(8,(M76)/100)/(POWER(8,M$56)*N$54*M$54*4)</f>
+        <f t="shared" si="4"/>
         <v>384</v>
       </c>
       <c r="P76" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="9">
+        <f>POWER(R$54,(P76)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>32</v>
+      </c>
+      <c r="R76">
+        <f>POWER(R$54,(P76)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>6.4</v>
+      </c>
+      <c r="S76">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="T76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="P77" s="8">
+        <v>110</v>
+      </c>
+      <c r="Q77" s="8">
+        <f>POWER(R$54,(P77)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>39.396621227037315</v>
+      </c>
+      <c r="R77">
+        <f>POWER(R$54,(P77)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>7.8793242454074628</v>
+      </c>
+      <c r="S77">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="P78" s="8">
+        <v>120</v>
+      </c>
+      <c r="Q78" s="8">
+        <f>POWER(R$54,(P78)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>48.502930128332736</v>
+      </c>
+      <c r="R78">
+        <f>POWER(R$54,(P78)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>9.7005860256665475</v>
+      </c>
+      <c r="S78">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="P79" s="8">
+        <v>130</v>
+      </c>
+      <c r="Q79" s="8">
+        <f>POWER(R$54,(P79)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>59.714111458355667</v>
+      </c>
+      <c r="R79">
+        <f>POWER(R$54,(P79)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>11.942822291671133</v>
+      </c>
+      <c r="S79">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="P80" s="8">
+        <v>140</v>
+      </c>
+      <c r="Q80" s="8">
+        <f>POWER(R$54,(P80)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>73.516694719810204</v>
+      </c>
+      <c r="R80">
+        <f>POWER(R$54,(P80)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>14.703338943962041</v>
+      </c>
+      <c r="S80">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="81" spans="16:19">
+      <c r="P81" s="8">
+        <v>150</v>
+      </c>
+      <c r="Q81" s="8">
+        <f>POWER(R$54,(P81)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>90.509667991878032</v>
+      </c>
+      <c r="R81">
+        <f>POWER(R$54,(P81)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>18.101933598375606</v>
+      </c>
+      <c r="S81">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="82" spans="16:19">
+      <c r="P82" s="8">
+        <v>160</v>
+      </c>
+      <c r="Q82" s="8">
+        <f>POWER(R$54,(P82)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>111.43047210190389</v>
+      </c>
+      <c r="R82">
+        <f>POWER(R$54,(P82)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>22.286094420380778</v>
+      </c>
+      <c r="S82">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="83" spans="16:19">
+      <c r="P83" s="8">
+        <v>170</v>
+      </c>
+      <c r="Q83" s="8">
+        <f>POWER(R$54,(P83)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>137.18700320464546</v>
+      </c>
+      <c r="R83">
+        <f>POWER(R$54,(P83)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>27.437400640929091</v>
+      </c>
+      <c r="S83">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="84" spans="16:19">
+      <c r="P84" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q84" s="8">
+        <f>POWER(R$54,(P84)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>168.8970125789304</v>
+      </c>
+      <c r="R84">
+        <f>POWER(R$54,(P84)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>33.779402515786082</v>
+      </c>
+      <c r="S84">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="85" spans="16:19">
+      <c r="P85" s="8">
+        <v>190</v>
+      </c>
+      <c r="Q85" s="8">
+        <f>POWER(R$54,(P85)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>207.93661346719622</v>
+      </c>
+      <c r="R85">
+        <f>POWER(R$54,(P85)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>41.587322693439248</v>
+      </c>
+      <c r="S85">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="86" spans="16:19">
+      <c r="P86" s="8">
         <v>200</v>
       </c>
-      <c r="Q76" s="8">
-        <f t="shared" si="0"/>
+      <c r="Q86" s="8">
+        <f>POWER(R$54,(P86)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
         <v>256</v>
       </c>
-      <c r="T76" t="s">
-        <v>171</v>
+      <c r="R86">
+        <f>POWER(R$54,(P86)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>51.2</v>
+      </c>
+      <c r="S86">
+        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/상점기획.xlsx
+++ b/Doc/상점기획.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="226">
   <si>
     <t>인스턴스동안 자동공격 ( 싸다 )</t>
   </si>
@@ -23,720 +23,951 @@
     <t>인스턴스동안 자동소모품루팅 ( 싸다 )</t>
   </si>
   <si>
-    <t>인벤토리 확장.(장비와연결)</t>
-  </si>
-  <si>
-    <t>장비셋 확장(장비와연결)</t>
-  </si>
-  <si>
-    <t>게임오버시 코인(인게임인스턴스종료시팝업과연결)</t>
-  </si>
-  <si>
-    <t>전문화초기화(전문화창과연결)</t>
-  </si>
-  <si>
-    <t>전직의서(전문화창과연결)</t>
+    <t>보너스상자(1회)(추가상자티켓과연결)</t>
+  </si>
+  <si>
+    <t>추가상자열기 UI플로우 완성 - 보류</t>
+  </si>
+  <si>
+    <t>젬구조확립</t>
+  </si>
+  <si>
+    <t>획득처만들기 ( 보석샵)</t>
+  </si>
+  <si>
+    <t>저장문제생각해보기 ( 서버? 클라우드 ? 로컬 )</t>
+  </si>
+  <si>
+    <t>인게임 인스턴스 Death시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴전문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴시작시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리풀체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비탭으로이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비셋구매하시겠습니까 팝업. 예-&gt;장비탭으로이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리셋구매하시겠습니까 팝업 예-&gt;장비탭으로이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문화초기화서가필요합니다. 구매하시겠습니까?(전문화창과연결)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전직의서가필요합니다. 구매하시겠습니까?(전문화창과연결)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5젬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1젬=100원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장권팩X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100젬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젬20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젬500+250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젬50+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젬100+30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젬200+80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10젬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수시지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50젬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5젬/최대10스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문화패치시에만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초100층보상 젬10 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임인스턴스상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드씬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젬샵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수시지급,짧은광고로대체가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1젬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴스동안 모든데미지2배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴스동안 소모품드랍2배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴스동안 동시연구+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수시지급, 있으면 무조건 자동사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있으면 무조건 자동사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3젬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8난이도기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개드랍.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉 효율100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본효율2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본효율1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4장비셋 1개씩얻을시 던젼클리어가 8/2*4 = 1로 8배쉬워짐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X 효율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4장비셋 1개씩얻을시 던젼클리어가 8/1*4 = 1로 4배쉬워짐), 2개씩 얻어야 위와 효율같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인첸트계수는 같은급이면 50포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동세로라인이면 같은급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인첸트계수는 +는 체크하지않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3배로강해지기위해 100포필요(템2개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +,++이 추가되므로 같은이름의 템을 얻어야하는 부담이생긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료의 ENCHANT점수는0이라도된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟의 ENCHANT는 100이어야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또하나의 손실은 노멀(1)+노멀(1)-&gt;매직(2) 인데 레어(3)=매직(2)+노멀(1) 이 아니라, 매직(2)+매직(2)를 요구한다. (1,2,4배수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE가 소중한 이유이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크템1개 = 레어3개, 매직6개, 노멀12개 ( ENCHANT점수 제외하고도 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀++200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직++200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어++200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크는 애초에 ENCHANTMAX가 350포인트이다. (50+100+200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100포 = 노멀ENCHANT 100포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100포 = 노멀ENCHANT 200포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100포 = 노멀ENCHANT 300포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비통합계수 = 0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비통합계수 = 0.125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 =1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간클리어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/(1+1+1+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 24배강해짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 9배강해짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/(24+24+24+24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64/(24+24+24+24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +몇층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공략에걸리는시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀풀강 최대배수 8배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올장비 노멀++풀강정도했다고 다음 100레벨을 2시간만에 깨는게 말이나됨? 택도없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올장비 레어+풀강 하면 최대배수 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100층의난이도계수8 * 장비통합계수0.25 = 공격력2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100층클리어시간은 8/(2+2+2+2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N난이도에서 24*4부위 = 96개의 아이템을 주워야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N+100층을 클리어하는데 2시간 걸린단말임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대배수 24에 +100층이 2시간이란말은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(==같은레어를3개얻을확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크1/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0층난이도계수 1 * 0.25 = 공격력0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0층클리어시간은 1/(0.25+0.25+0.25+0.25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비통합계수가 0.25일때 +0층은 1시간클리어. + 100층은 8시간클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도계수8이면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음100층을깨는데는 8배의 시간이걸린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8배를들여서 다음 100층을 깨는건 문제가 안된다. 단 100층깨서 나오는템이 구려야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은랩 8번 파밍하는게 더 나을정도로 구려야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번파밍하면 최대배수 8급아이템 = 다음100층 배수1급아이템 // 단 속도는 점점강해지는 8번파밍이더빠르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 왼쪽의 설정은 어떤층을깨서 얻는템이 동층클리어가 4시간이걸릴정도로 구리게설정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32시간 보람들여서 +100층을 깰이유가없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8배수정도는되야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8배수나 12배수정도되야 +100깨는데 4시간쯤 걸리게 해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복파밍, 도전파밍효율을 맞추기위해 마찬가지로 1배수때는 +0깨는데 4시간.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적절 장통계는 1/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기템을 8배수(100레벨템)으로 지급해주면.  100레벨클리어에 4시간이걸린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더좋은거 지급해줘도되지만. 최초100층 클리어해서 나오는템이 처음지급받은거보다 구리면 씁쓸하잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본1포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공략에걸리는시간(4템을1속성몰빵했다고가정.x4를한다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1속성의공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,24,12,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본뿌리를 바꾸는것이기 때문에 한계돌파와는 달리 손실이 발생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +, ++이 되는과정은 한계돌파라고한다.(ENCHANT의연장선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계돌파에는 아이템ID, GRADE만 같으면 재료로사용가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한계돌파 후에는 ENCHANT가 0점이된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( 재료의 ENCHANT는 0이었으니까 ENCHANT점수의 손실은 없다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(같은템소모를통한한계돌파과정이없음. 대신 드랍율최악)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀-&gt;매직-&gt;레어 로 GRADE가 바뀌는것은. 진화라고한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">손실은 ENCHANT손실로, 진화의 경우 재료의 ENCHANT지수도 100이어야한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟은 MAX ENCHANT, MAX 한돌 상태여야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료역시 MAX ENCHANT, MAX 한돌 상태여야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과는 0 ENCHANT, MAX 한돌이 나온다. ( ENCHANT값의 손실이 발생한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진화에는 MAX EC, MAX 한돌, 상태에서 아이템ID, GRADE, 한돌정도가 같으면된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENCHANT재료소모시에는 재료의 ENCHANT정도와 한돌정도는 따지지않는다. 오로지 GRADE만따진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>템을 4개씩 떨군다면, 12배수되는데 걸리는 클리어횟수는 12클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분도전(+50층)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24배수일때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8배수일때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분도전(+0층)(템파밍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간도전(+30몇층)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장시 30분 플레이가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대3회까지가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인사용 질문, 없을시 1개구매도가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매가능,긴광고로대체가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴광고보기로 대체가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>추가상자티켓(리워드창과연결)</t>
-  </si>
-  <si>
-    <t>보너스상자(1회)(추가상자티켓과연결)</t>
-  </si>
-  <si>
-    <t>추가상자열기 UI플로우 완성 - 보류</t>
-  </si>
-  <si>
-    <t>젬구조확립</t>
-  </si>
-  <si>
-    <t>획득처만들기 ( 보석샵)</t>
-  </si>
-  <si>
-    <t>저장문제생각해보기 ( 서버? 클라우드 ? 로컬 )</t>
-  </si>
-  <si>
-    <t>인게임 인스턴스 Death시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업, 코인구매가능하게끔.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴전문화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴시작시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리풀체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비탭으로이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비셋구매하시겠습니까 팝업. 예-&gt;장비탭으로이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리셋구매하시겠습니까 팝업 예-&gt;장비탭으로이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문화초기화서가필요합니다. 구매하시겠습니까?(전문화창과연결)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전직의서가필요합니다. 구매하시겠습니까?(전문화창과연결)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스택,영구적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스택,소모품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고보기로 계속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5젬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1젬=100원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입장권팩X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100젬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젬20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젬500+250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젬50+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젬100+30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젬200+80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10젬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금정도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수시지급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50젬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20젬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5젬/최대10스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문화패치시에만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초100층보상 젬10 플로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인게임인스턴스상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리워드씬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젬샵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지급정도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수시지급, 긴광고로대체가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수시지급,짧은광고로대체가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1젬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스턴스동안 모든데미지2배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스턴스동안 소모품드랍2배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스턴스동안 동시연구+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스턴스동안 몬스터공격시간+2배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수시지급, 있으면 무조건 자동사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>있으면 무조건 자동사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3젬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8난이도기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1개드랍.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉 효율100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효율 100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본효율2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본효율1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4장비셋 1개씩얻을시 던젼클리어가 8/2*4 = 1로 8배쉬워짐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1개드랍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X 효율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4장비셋 1개씩얻을시 던젼클리어가 8/1*4 = 1로 4배쉬워짐), 2개씩 얻어야 위와 효율같음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인첸트계수는 같은급이면 50포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀+100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직+100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어+100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동세로라인이면 같은급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인첸트계수는 +는 체크하지않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3배로강해지기위해 100포필요(템2개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +,++이 추가되므로 같은이름의 템을 얻어야하는 부담이생긴다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료의 ENCHANT점수는0이라도된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟의 ENCHANT는 100이어야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>또하나의 손실은 노멀(1)+노멀(1)-&gt;매직(2) 인데 레어(3)=매직(2)+노멀(1) 이 아니라, 매직(2)+매직(2)를 요구한다. (1,2,4배수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE가 소중한 이유이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크템1개 = 레어3개, 매직6개, 노멀12개 ( ENCHANT점수 제외하고도 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀++200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직++200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어++200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크는 애초에 ENCHANTMAX가 350포인트이다. (50+100+200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100포 = 노멀ENCHANT 100포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100포 = 노멀ENCHANT 200포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100포 = 노멀ENCHANT 300포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비통합계수 = 0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비통합계수 = 0.125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 =1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2시간클리어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/(1+1+1+1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 24배강해짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 9배강해짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/(24+24+24+24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64/(24+24+24+24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +몇층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공략에걸리는시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장통계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대배수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀풀강 최대배수 8배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올장비 노멀++풀강정도했다고 다음 100레벨을 2시간만에 깨는게 말이나됨? 택도없음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올장비 레어+풀강 하면 최대배수 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100층의난이도계수8 * 장비통합계수0.25 = 공격력2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100층클리어시간은 8/(2+2+2+2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N난이도에서 24*4부위 = 96개의 아이템을 주워야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N+100층을 클리어하는데 2시간 걸린단말임.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대배수 24에 +100층이 2시간이란말은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(==같은레어를3개얻을확률)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니크1/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0층난이도계수 1 * 0.25 = 공격력0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0층클리어시간은 1/(0.25+0.25+0.25+0.25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비통합계수가 0.25일때 +0층은 1시간클리어. + 100층은 8시간클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난이도계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난이도계수8이면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음100층을깨는데는 8배의 시간이걸린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8배를들여서 다음 100층을 깨는건 문제가 안된다. 단 100층깨서 나오는템이 구려야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은랩 8번 파밍하는게 더 나을정도로 구려야함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8번파밍하면 최대배수 8급아이템 = 다음100층 배수1급아이템 // 단 속도는 점점강해지는 8번파밍이더빠르다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로 왼쪽의 설정은 어떤층을깨서 얻는템이 동층클리어가 4시간이걸릴정도로 구리게설정.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32시간 보람들여서 +100층을 깰이유가없음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">8배수정도는되야 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8배수나 12배수정도되야 +100깨는데 4시간쯤 걸리게 해보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복파밍, 도전파밍효율을 맞추기위해 마찬가지로 1배수때는 +0깨는데 4시간.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적절 장통계는 1/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기템을 8배수(100레벨템)으로 지급해주면.  100레벨클리어에 4시간이걸린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더좋은거 지급해줘도되지만. 최초100층 클리어해서 나오는템이 처음지급받은거보다 구리면 씁쓸하잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비능력치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본1포함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공략에걸리는시간(4템을1속성몰빵했다고가정.x4를한다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1속성의공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,24,12,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본뿌리를 바꾸는것이기 때문에 한계돌파와는 달리 손실이 발생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +, ++이 되는과정은 한계돌파라고한다.(ENCHANT의연장선)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한계돌파에는 아이템ID, GRADE만 같으면 재료로사용가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">한계돌파 후에는 ENCHANT가 0점이된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>( 재료의 ENCHANT는 0이었으니까 ENCHANT점수의 손실은 없다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(같은템소모를통한한계돌파과정이없음. 대신 드랍율최악)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀-&gt;매직-&gt;레어 로 GRADE가 바뀌는것은. 진화라고한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">손실은 ENCHANT손실로, 진화의 경우 재료의 ENCHANT지수도 100이어야한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟은 MAX ENCHANT, MAX 한돌 상태여야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료역시 MAX ENCHANT, MAX 한돌 상태여야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과는 0 ENCHANT, MAX 한돌이 나온다. ( ENCHANT값의 손실이 발생한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진화에는 MAX EC, MAX 한돌, 상태에서 아이템ID, GRADE, 한돌정도가 같으면된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENCHANT재료소모시에는 재료의 ENCHANT정도와 한돌정도는 따지지않는다. 오로지 GRADE만따진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가상자티켓 x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30젬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60젬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12배수일때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분도전(20층)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간도전(50층)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인, (인스턴스 제한시간 2배, +30분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인,  (인스턴스 제한시간 +30분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비최대배수 = 12배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블데미지유료템 = 24배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블타임 = 1시간도전.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간도전(+80몇층)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 +80~90층템획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 기타 소모품 및 마법부여 및 전문화포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전직의서(즉시 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 확장.(인벤토리확장명령)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비셋 확장(장비확장명령)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문화초기화(전문화초기화명령)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25젬(최대2번)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인벤토리를 확장해야하는 이유? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비셋을 확장해야 하는 이유?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>템을 모으게해야하는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 강화재료로 족족써버리면된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기껏해야 grade업을 위한 재료(노멀,매직)좀 남겨놓을정도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">대안템 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 나올경우 도시락으로 쓰기위해</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">아이템레벨이비슷하지만 능력이 다른 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대안템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 사용하기위해</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대안템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 해당하는것을 만들수있을까?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링부위를 1개만만들고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링의 능력은 고유속성1개만으로 고정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 여전히 검술만, 스테프는여전히 올능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대안템은 주로 링이된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등으로 한쪽으로 몰빵가능하게만들수있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염,검술(노멀템)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염,전체마법(매직템)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염(레어템)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 몰빵했을때의 성능이좋게만들어야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(높은레벨 레어가나왔을때 스킬도시락으로 쓰기위해 낮은레어를 남기는경우도 있다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템은 레벨별로떨어지고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어지기시작하는 레벨은다르다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,11 +975,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,8 +1019,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,6 +1080,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -840,7 +1107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +1151,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:K46"/>
+  <dimension ref="A4:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="A23:D24"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
@@ -1199,131 +1478,131 @@
   <sheetData>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="F5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1331,28 +1610,28 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1360,314 +1639,428 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="D12" s="4" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>48</v>
+      <c r="D13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D14" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
+        <v>203</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
+      <c r="A15" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="4:11">
+      <c r="D16" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:11">
+    <row r="19" spans="1:11">
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="K19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="K20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="D22" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11">
-      <c r="D22" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="4:11">
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="1:11">
       <c r="D25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="I28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="D31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>POWER(8,E48/100)</f>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f>F48/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="4:11">
-      <c r="I29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11">
-      <c r="I30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f>POWER(8,D36/100)</f>
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <f>E36/4</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ref="E37:E46" si="0">POWER(8,D37/100)</f>
+      <c r="F49">
+        <f t="shared" ref="F49:F58" si="0">POWER(8,E49/100)</f>
         <v>1.2311444133449163</v>
       </c>
-      <c r="F37">
-        <f t="shared" ref="F37:F46" si="1">E37/4</f>
+      <c r="G49">
+        <f t="shared" ref="G49:G58" si="1">F49/4</f>
         <v>0.30778610333622908</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
-      <c r="D38">
+    <row r="50" spans="4:7">
+      <c r="E50">
         <v>20</v>
       </c>
-      <c r="E38">
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>1.515716566510398</v>
       </c>
-      <c r="F38">
+      <c r="G50">
         <f t="shared" si="1"/>
         <v>0.3789291416275995</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
-      <c r="D39">
+    <row r="51" spans="4:7">
+      <c r="D51" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51">
         <v>30</v>
       </c>
-      <c r="E39">
+      <c r="F51">
         <f t="shared" si="0"/>
         <v>1.8660659830736148</v>
       </c>
-      <c r="F39">
+      <c r="G51">
         <f t="shared" si="1"/>
         <v>0.46651649576840371</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
-      <c r="D40">
+    <row r="52" spans="4:7">
+      <c r="D52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52">
         <v>40</v>
       </c>
-      <c r="E40">
+      <c r="F52">
         <f t="shared" si="0"/>
         <v>2.2973967099940702</v>
       </c>
-      <c r="F40">
+      <c r="G52">
         <f t="shared" si="1"/>
         <v>0.57434917749851755</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
-      <c r="D41">
+    <row r="53" spans="4:7">
+      <c r="D53" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53">
         <v>50</v>
       </c>
-      <c r="E41">
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>2.8284271247461903</v>
       </c>
-      <c r="F41">
+      <c r="G53">
         <f t="shared" si="1"/>
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
-      <c r="D42">
+    <row r="54" spans="4:7">
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54">
         <v>60</v>
       </c>
-      <c r="E42">
+      <c r="F54">
         <f t="shared" si="0"/>
         <v>3.4822022531844965</v>
       </c>
-      <c r="F42">
+      <c r="G54">
         <f t="shared" si="1"/>
         <v>0.87055056329612412</v>
       </c>
     </row>
-    <row r="43" spans="4:6">
-      <c r="D43">
+    <row r="55" spans="4:7">
+      <c r="D55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55">
         <v>70</v>
       </c>
-      <c r="E43">
+      <c r="F55">
         <f t="shared" si="0"/>
         <v>4.2870938501451716</v>
       </c>
-      <c r="F43">
+      <c r="G55">
         <f t="shared" si="1"/>
         <v>1.0717734625362929</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
-      <c r="D44">
+    <row r="56" spans="4:7">
+      <c r="E56">
         <v>80</v>
       </c>
-      <c r="E44">
+      <c r="F56">
         <f t="shared" si="0"/>
         <v>5.2780316430915768</v>
       </c>
-      <c r="F44">
+      <c r="G56">
         <f t="shared" si="1"/>
         <v>1.3195079107728942</v>
       </c>
     </row>
-    <row r="45" spans="4:6">
-      <c r="D45">
+    <row r="57" spans="4:7">
+      <c r="D57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57">
         <v>90</v>
       </c>
-      <c r="E45">
+      <c r="F57">
         <f t="shared" si="0"/>
         <v>6.4980191708498829</v>
       </c>
-      <c r="F45">
+      <c r="G57">
         <f t="shared" si="1"/>
         <v>1.6245047927124707</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
-      <c r="D46">
+    <row r="58" spans="4:7">
+      <c r="D58" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58">
         <v>100</v>
       </c>
-      <c r="E46">
+      <c r="F58">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F46">
+      <c r="G58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1681,69 +2074,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Y86"/>
+  <dimension ref="A2:Y88"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E51" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="20" max="20" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
       <c r="G2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="C8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="G9" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G11" s="7">
         <v>2</v>
@@ -1767,7 +2161,7 @@
         <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1793,33 +2187,33 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="O13" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1845,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1871,30 +2265,30 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1920,72 +2314,72 @@
         <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="13" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Y19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="C20" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="I21" s="7"/>
       <c r="L21" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="M22" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="T22" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2009,12 +2403,12 @@
         <v>8</v>
       </c>
       <c r="T23" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2038,41 +2432,41 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="G25" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L25" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M25" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="T25" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2098,7 +2492,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2122,51 +2516,51 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T28" t="s">
         <v>113</v>
-      </c>
-      <c r="P28" t="s">
-        <v>118</v>
-      </c>
-      <c r="T28" t="s">
-        <v>126</v>
       </c>
       <c r="V28">
         <f>(8/(24+24+24+24))*60</f>
         <v>5</v>
       </c>
       <c r="W28" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2190,19 +2584,19 @@
         <v>24</v>
       </c>
       <c r="T29" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="V29">
         <f>(64/(24+24+24+24))*60</f>
         <v>40</v>
       </c>
       <c r="W29" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2228,30 +2622,30 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="M31" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M32">
         <v>24</v>
@@ -2259,43 +2653,43 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J36" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J37" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M37" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q37" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="M38" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -2313,7 +2707,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="J40" s="11">
         <f>J39/SUM($J$39:$M$39)</f>
@@ -2334,43 +2728,43 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="S49" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="T49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="P50">
         <f>SQRT(8)</f>
         <v>2.8284271247461903</v>
@@ -2383,51 +2777,51 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G53" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J53" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K53" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M53" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="N53" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="Q53" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="R53" t="s">
-        <v>150</v>
-      </c>
-      <c r="T53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>137</v>
+      </c>
+      <c r="U53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2461,67 +2855,70 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q54">
-        <f>1/16</f>
+        <f>1/4/4</f>
         <v>6.25E-2</v>
       </c>
       <c r="R54">
         <v>8</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H55" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J55" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K55" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M55" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="N55" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="Q55" s="13" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="R55" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="S55" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="T55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>172</v>
+      </c>
+      <c r="U55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>0</v>
       </c>
@@ -2556,21 +2953,25 @@
       </c>
       <c r="Q56" s="14">
         <f t="shared" ref="Q56:Q65" si="5">POWER(R$54,(P56)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>0.5</v>
+        <v>3.125E-2</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56:R65" si="6">POWER(R$54,(P56)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56:S65" si="7">(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="T56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T56" s="15">
+        <f>Q56*60</f>
+        <v>1.875</v>
+      </c>
+      <c r="U56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>10</v>
       </c>
@@ -2613,21 +3014,25 @@
       </c>
       <c r="Q57" s="14">
         <f t="shared" si="5"/>
-        <v>0.61557220667245827</v>
+        <v>3.8473262917028642E-2</v>
       </c>
       <c r="R57">
         <f t="shared" si="6"/>
-        <v>0.12311444133449165</v>
+        <v>3.0778610333622912E-2</v>
       </c>
       <c r="S57">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="T57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T57" s="15">
+        <f t="shared" ref="T57:T86" si="8">Q57*60</f>
+        <v>2.3083957750217183</v>
+      </c>
+      <c r="U57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58">
         <v>20</v>
       </c>
@@ -2670,21 +3075,25 @@
       </c>
       <c r="Q58" s="14">
         <f t="shared" si="5"/>
-        <v>0.75785828325519911</v>
+        <v>4.7366142703449944E-2</v>
       </c>
       <c r="R58">
         <f t="shared" si="6"/>
-        <v>0.15157165665103983</v>
+        <v>3.7892914162759958E-2</v>
       </c>
       <c r="S58">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="T58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T58" s="15">
+        <f t="shared" si="8"/>
+        <v>2.8419685622069966</v>
+      </c>
+      <c r="U58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59">
         <v>30</v>
       </c>
@@ -2727,21 +3136,25 @@
       </c>
       <c r="Q59" s="14">
         <f t="shared" si="5"/>
-        <v>0.93303299153680763</v>
+        <v>5.8314561971050477E-2</v>
       </c>
       <c r="R59">
         <f t="shared" si="6"/>
-        <v>0.18660659830736154</v>
+        <v>4.6651649576840384E-2</v>
       </c>
       <c r="S59">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="T59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T59" s="15">
+        <f t="shared" si="8"/>
+        <v>3.4988737182630287</v>
+      </c>
+      <c r="U59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60">
         <v>40</v>
       </c>
@@ -2784,21 +3197,25 @@
       </c>
       <c r="Q60" s="14">
         <f t="shared" si="5"/>
-        <v>1.1486983549970351</v>
+        <v>7.1793647187314694E-2</v>
       </c>
       <c r="R60">
         <f t="shared" si="6"/>
-        <v>0.22973967099940701</v>
+        <v>5.7434917749851752E-2</v>
       </c>
       <c r="S60">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="T60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T60" s="15">
+        <f t="shared" si="8"/>
+        <v>4.3076188312388819</v>
+      </c>
+      <c r="U60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61">
         <v>50</v>
       </c>
@@ -2841,18 +3258,25 @@
       </c>
       <c r="Q61" s="14">
         <f t="shared" si="5"/>
-        <v>1.4142135623730949</v>
+        <v>8.8388347648318433E-2</v>
       </c>
       <c r="R61">
         <f t="shared" si="6"/>
-        <v>0.28284271247461901</v>
+        <v>7.0710678118654752E-2</v>
       </c>
       <c r="S61">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T61" s="15">
+        <f t="shared" si="8"/>
+        <v>5.3033008588991057</v>
+      </c>
+      <c r="U61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2895,21 +3319,25 @@
       </c>
       <c r="Q62" s="14">
         <f t="shared" si="5"/>
-        <v>1.7411011265922482</v>
+        <v>0.10881882041201552</v>
       </c>
       <c r="R62">
         <f t="shared" si="6"/>
-        <v>0.34822022531844965</v>
+        <v>8.7055056329612412E-2</v>
       </c>
       <c r="S62">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="T62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T62" s="15">
+        <f t="shared" si="8"/>
+        <v>6.5291292247209309</v>
+      </c>
+      <c r="U62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>70</v>
       </c>
@@ -2952,21 +3380,25 @@
       </c>
       <c r="Q63" s="14">
         <f t="shared" si="5"/>
-        <v>2.1435469250725863</v>
+        <v>0.13397168281703664</v>
       </c>
       <c r="R63">
         <f t="shared" si="6"/>
-        <v>0.42870938501451727</v>
+        <v>0.10717734625362932</v>
       </c>
       <c r="S63">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="T63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T63" s="15">
+        <f t="shared" si="8"/>
+        <v>8.0383009690221989</v>
+      </c>
+      <c r="U63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>80</v>
       </c>
@@ -3009,21 +3441,25 @@
       </c>
       <c r="Q64" s="14">
         <f t="shared" si="5"/>
-        <v>2.6390158215457888</v>
+        <v>0.1649384888466118</v>
       </c>
       <c r="R64">
         <f t="shared" si="6"/>
-        <v>0.52780316430915775</v>
+        <v>0.13195079107728944</v>
       </c>
       <c r="S64">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="T64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T64" s="15">
+        <f t="shared" si="8"/>
+        <v>9.8963093307967078</v>
+      </c>
+      <c r="U64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65">
         <v>90</v>
       </c>
@@ -3066,18 +3502,22 @@
       </c>
       <c r="Q65" s="14">
         <f t="shared" si="5"/>
-        <v>3.2490095854249419</v>
+        <v>0.20306309908905887</v>
       </c>
       <c r="R65">
         <f t="shared" si="6"/>
-        <v>0.64980191708498836</v>
+        <v>0.16245047927124709</v>
       </c>
       <c r="S65">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="T65" s="15">
+        <f t="shared" si="8"/>
+        <v>12.183785945343532</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66">
         <v>100</v>
       </c>
@@ -3117,19 +3557,23 @@
       </c>
       <c r="P66" s="8"/>
       <c r="Q66" s="10">
-        <f>POWER(R$54,(P66)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>4</v>
+        <f t="shared" ref="Q66:Q86" si="9">POWER(R$54,(P66)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <f>POWER(R$54,(P66)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>0.8</v>
+        <f t="shared" ref="R66:R86" si="10">POWER(R$54,(P66)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>0.2</v>
       </c>
       <c r="S66">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <f t="shared" ref="S66:S86" si="11">(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
+        <v>5</v>
+      </c>
+      <c r="T66" s="15">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67">
         <v>110</v>
       </c>
@@ -3171,19 +3615,23 @@
         <v>10</v>
       </c>
       <c r="Q67" s="8">
-        <f>POWER(R$54,(P67)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>4.9245776533796652</v>
+        <f t="shared" si="9"/>
+        <v>0.30778610333622908</v>
       </c>
       <c r="R67">
-        <f>POWER(R$54,(P67)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>0.98491553067593307</v>
+        <f t="shared" si="10"/>
+        <v>0.24622888266898327</v>
       </c>
       <c r="S67">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T67" s="15">
+        <f t="shared" si="8"/>
+        <v>18.467166200173743</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68">
         <v>120</v>
       </c>
@@ -3225,22 +3673,26 @@
         <v>20</v>
       </c>
       <c r="Q68" s="8">
-        <f>POWER(R$54,(P68)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>6.062866266041592</v>
+        <f t="shared" si="9"/>
+        <v>0.3789291416275995</v>
       </c>
       <c r="R68">
-        <f>POWER(R$54,(P68)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.2125732532083184</v>
+        <f t="shared" si="10"/>
+        <v>0.30314331330207961</v>
       </c>
       <c r="S68">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="T68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T68" s="15">
+        <f t="shared" si="8"/>
+        <v>22.735748497655969</v>
+      </c>
+      <c r="U68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69">
         <v>130</v>
       </c>
@@ -3282,22 +3734,26 @@
         <v>30</v>
       </c>
       <c r="Q69" s="8">
-        <f>POWER(R$54,(P69)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>7.4642639322944593</v>
+        <f t="shared" si="9"/>
+        <v>0.46651649576840371</v>
       </c>
       <c r="R69">
-        <f>POWER(R$54,(P69)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.4928527864588919</v>
+        <f t="shared" si="10"/>
+        <v>0.37321319661472296</v>
       </c>
       <c r="S69">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="T69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T69" s="15">
+        <f t="shared" si="8"/>
+        <v>27.990989746104223</v>
+      </c>
+      <c r="U69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70">
         <v>140</v>
       </c>
@@ -3339,22 +3795,26 @@
         <v>40</v>
       </c>
       <c r="Q70" s="8">
-        <f>POWER(R$54,(P70)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>9.1895868399762808</v>
+        <f t="shared" si="9"/>
+        <v>0.57434917749851755</v>
       </c>
       <c r="R70">
-        <f>POWER(R$54,(P70)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.8379173679952561</v>
+        <f t="shared" si="10"/>
+        <v>0.45947934199881402</v>
       </c>
       <c r="S70">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="T70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T70" s="15">
+        <f t="shared" si="8"/>
+        <v>34.460950649911055</v>
+      </c>
+      <c r="U70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71">
         <v>150</v>
       </c>
@@ -3396,22 +3856,26 @@
         <v>50</v>
       </c>
       <c r="Q71" s="8">
-        <f>POWER(R$54,(P71)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>11.313708498984761</v>
+        <f t="shared" si="9"/>
+        <v>0.70710678118654757</v>
       </c>
       <c r="R71">
-        <f>POWER(R$54,(P71)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>2.2627416997969521</v>
+        <f t="shared" si="10"/>
+        <v>0.56568542494923801</v>
       </c>
       <c r="S71">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="T71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T71" s="16">
+        <f t="shared" si="8"/>
+        <v>42.426406871192853</v>
+      </c>
+      <c r="U71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72">
         <v>160</v>
       </c>
@@ -3453,22 +3917,26 @@
         <v>60</v>
       </c>
       <c r="Q72" s="8">
-        <f>POWER(R$54,(P72)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>13.928809012737986</v>
+        <f t="shared" si="9"/>
+        <v>0.87055056329612412</v>
       </c>
       <c r="R72">
-        <f>POWER(R$54,(P72)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>2.7857618025475972</v>
+        <f t="shared" si="10"/>
+        <v>0.6964404506368993</v>
       </c>
       <c r="S72">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="T72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T72" s="15">
+        <f t="shared" si="8"/>
+        <v>52.233033797767447</v>
+      </c>
+      <c r="U72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73">
         <v>170</v>
       </c>
@@ -3510,19 +3978,23 @@
         <v>70</v>
       </c>
       <c r="Q73" s="8">
-        <f>POWER(R$54,(P73)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>17.148375400580687</v>
+        <f t="shared" si="9"/>
+        <v>1.0717734625362929</v>
       </c>
       <c r="R73">
-        <f>POWER(R$54,(P73)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>3.4296750801161373</v>
+        <f t="shared" si="10"/>
+        <v>0.85741877002903433</v>
       </c>
       <c r="S73">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T73" s="15">
+        <f t="shared" si="8"/>
+        <v>64.306407752177577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74">
         <v>180</v>
       </c>
@@ -3564,22 +4036,26 @@
         <v>80</v>
       </c>
       <c r="Q74" s="8">
-        <f>POWER(R$54,(P74)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>21.112126572366307</v>
+        <f t="shared" si="9"/>
+        <v>1.3195079107728942</v>
       </c>
       <c r="R74">
-        <f>POWER(R$54,(P74)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>4.2224253144732611</v>
+        <f t="shared" si="10"/>
+        <v>1.0556063286183153</v>
       </c>
       <c r="S74">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="T74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T74" s="16">
+        <f t="shared" si="8"/>
+        <v>79.170474646373648</v>
+      </c>
+      <c r="U74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75">
         <v>190</v>
       </c>
@@ -3621,22 +4097,26 @@
         <v>90</v>
       </c>
       <c r="Q75" s="8">
-        <f>POWER(R$54,(P75)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>25.992076683399532</v>
+        <f t="shared" si="9"/>
+        <v>1.6245047927124707</v>
       </c>
       <c r="R75">
-        <f>POWER(R$54,(P75)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>5.198415336679906</v>
+        <f t="shared" si="10"/>
+        <v>1.2996038341699765</v>
       </c>
       <c r="S75">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="T75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T75" s="15">
+        <f t="shared" si="8"/>
+        <v>97.47028756274824</v>
+      </c>
+      <c r="U75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76">
         <v>200</v>
       </c>
@@ -3678,189 +4158,279 @@
         <v>100</v>
       </c>
       <c r="Q76" s="9">
-        <f>POWER(R$54,(P76)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="R76">
-        <f>POWER(R$54,(P76)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>6.4</v>
+        <f t="shared" si="10"/>
+        <v>1.6</v>
       </c>
       <c r="S76">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-      <c r="T76" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T76" s="15">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="U76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="P77" s="8">
         <v>110</v>
       </c>
       <c r="Q77" s="8">
-        <f>POWER(R$54,(P77)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>39.396621227037315</v>
+        <f t="shared" si="9"/>
+        <v>2.4622888266898322</v>
       </c>
       <c r="R77">
-        <f>POWER(R$54,(P77)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>7.8793242454074628</v>
+        <f t="shared" si="10"/>
+        <v>1.9698310613518657</v>
       </c>
       <c r="S77">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T77" s="15">
+        <f t="shared" si="8"/>
+        <v>147.73732960138994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="P78" s="8">
         <v>120</v>
       </c>
       <c r="Q78" s="8">
-        <f>POWER(R$54,(P78)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>48.502930128332736</v>
+        <f t="shared" si="9"/>
+        <v>3.031433133020796</v>
       </c>
       <c r="R78">
-        <f>POWER(R$54,(P78)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>9.7005860256665475</v>
+        <f t="shared" si="10"/>
+        <v>2.4251465064166369</v>
       </c>
       <c r="S78">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T78" s="15">
+        <f t="shared" si="8"/>
+        <v>181.88598798124775</v>
+      </c>
+      <c r="V78" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="P79" s="8">
         <v>130</v>
       </c>
       <c r="Q79" s="8">
-        <f>POWER(R$54,(P79)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>59.714111458355667</v>
+        <f t="shared" si="9"/>
+        <v>3.7321319661472292</v>
       </c>
       <c r="R79">
-        <f>POWER(R$54,(P79)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>11.942822291671133</v>
+        <f t="shared" si="10"/>
+        <v>2.9857055729177833</v>
       </c>
       <c r="S79">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T79" s="15">
+        <f t="shared" si="8"/>
+        <v>223.92791796883375</v>
+      </c>
+      <c r="V79" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="P80" s="8">
         <v>140</v>
       </c>
       <c r="Q80" s="8">
-        <f>POWER(R$54,(P80)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>73.516694719810204</v>
+        <f t="shared" si="9"/>
+        <v>4.5947934199881377</v>
       </c>
       <c r="R80">
-        <f>POWER(R$54,(P80)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>14.703338943962041</v>
+        <f t="shared" si="10"/>
+        <v>3.6758347359905104</v>
       </c>
       <c r="S80">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="81" spans="16:19">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T80" s="15">
+        <f t="shared" si="8"/>
+        <v>275.68760519928827</v>
+      </c>
+      <c r="V80" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="16:25">
       <c r="P81" s="8">
         <v>150</v>
       </c>
       <c r="Q81" s="8">
-        <f>POWER(R$54,(P81)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>90.509667991878032</v>
+        <f t="shared" si="9"/>
+        <v>5.656854249492377</v>
       </c>
       <c r="R81">
-        <f>POWER(R$54,(P81)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>18.101933598375606</v>
+        <f t="shared" si="10"/>
+        <v>4.5254833995939014</v>
       </c>
       <c r="S81">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="82" spans="16:19">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T81" s="15">
+        <f t="shared" si="8"/>
+        <v>339.4112549695426</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="16:25">
       <c r="P82" s="8">
         <v>160</v>
       </c>
       <c r="Q82" s="8">
-        <f>POWER(R$54,(P82)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>111.43047210190389</v>
+        <f t="shared" si="9"/>
+        <v>6.964404506368993</v>
       </c>
       <c r="R82">
-        <f>POWER(R$54,(P82)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>22.286094420380778</v>
+        <f t="shared" si="10"/>
+        <v>5.5715236050951944</v>
       </c>
       <c r="S82">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="83" spans="16:19">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T82" s="15">
+        <f t="shared" si="8"/>
+        <v>417.86427038213958</v>
+      </c>
+      <c r="V82" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="16:25">
       <c r="P83" s="8">
         <v>170</v>
       </c>
       <c r="Q83" s="8">
-        <f>POWER(R$54,(P83)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>137.18700320464546</v>
+        <f t="shared" si="9"/>
+        <v>8.5741877002903415</v>
       </c>
       <c r="R83">
-        <f>POWER(R$54,(P83)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>27.437400640929091</v>
+        <f t="shared" si="10"/>
+        <v>6.8593501602322728</v>
       </c>
       <c r="S83">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="84" spans="16:19">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T83" s="15">
+        <f t="shared" si="8"/>
+        <v>514.4512620174205</v>
+      </c>
+      <c r="V83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="16:25">
       <c r="P84" s="8">
         <v>180</v>
       </c>
       <c r="Q84" s="8">
-        <f>POWER(R$54,(P84)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>168.8970125789304</v>
+        <f t="shared" si="9"/>
+        <v>10.55606328618315</v>
       </c>
       <c r="R84">
-        <f>POWER(R$54,(P84)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>33.779402515786082</v>
+        <f t="shared" si="10"/>
+        <v>8.4448506289465204</v>
       </c>
       <c r="S84">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="85" spans="16:19">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T84" s="15">
+        <f t="shared" si="8"/>
+        <v>633.36379717098896</v>
+      </c>
+      <c r="V84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="16:25">
       <c r="P85" s="8">
         <v>190</v>
       </c>
       <c r="Q85" s="8">
-        <f>POWER(R$54,(P85)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>207.93661346719622</v>
+        <f t="shared" si="9"/>
+        <v>12.996038341699764</v>
       </c>
       <c r="R85">
-        <f>POWER(R$54,(P85)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>41.587322693439248</v>
+        <f t="shared" si="10"/>
+        <v>10.396830673359812</v>
       </c>
       <c r="S85">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="86" spans="16:19">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T85" s="15">
+        <f t="shared" si="8"/>
+        <v>779.76230050198581</v>
+      </c>
+    </row>
+    <row r="86" spans="16:25">
       <c r="P86" s="8">
         <v>200</v>
       </c>
       <c r="Q86" s="8">
-        <f>POWER(R$54,(P86)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>256</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="R86">
-        <f>POWER(R$54,(P86)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>51.2</v>
+        <f t="shared" si="10"/>
+        <v>12.8</v>
       </c>
       <c r="S86">
-        <f>(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>1.25</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="T86" s="15">
+        <f t="shared" si="8"/>
+        <v>960</v>
+      </c>
+      <c r="V86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="16:25">
+      <c r="V87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="16:25">
+      <c r="V88" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/상점기획.xlsx
+++ b/Doc/상점기획.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="232">
   <si>
     <t>인스턴스동안 자동공격 ( 싸다 )</t>
   </si>
@@ -970,6 +970,30 @@
     <t>떨어지기시작하는 레벨은다르다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>매직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, 1/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, 1/56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들기수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -978,7 +1002,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1153,10 +1177,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
@@ -2074,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Y88"/>
+  <dimension ref="A2:Z105"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F52" workbookViewId="0">
-      <selection activeCell="Y54" sqref="Y54"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2740,23 +2764,72 @@
       <c r="A43" t="s">
         <v>94</v>
       </c>
+      <c r="J43" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>169</v>
       </c>
+      <c r="J44" t="s">
+        <v>231</v>
+      </c>
+      <c r="K44" t="s">
+        <v>226</v>
+      </c>
+      <c r="L44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="47" spans="1:17">
+      <c r="J47" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>170</v>
       </c>
+      <c r="J48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" t="s">
+        <v>60</v>
+      </c>
+      <c r="M48" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="49" spans="1:21">
+      <c r="N49">
+        <v>80</v>
+      </c>
+      <c r="O49">
+        <v>16</v>
+      </c>
+      <c r="P49">
+        <v>5</v>
+      </c>
       <c r="S49" t="s">
         <v>151</v>
       </c>
@@ -2765,6 +2838,16 @@
       </c>
     </row>
     <row r="50" spans="1:21">
+      <c r="J50">
+        <v>16</v>
+      </c>
+      <c r="K50">
+        <f>16/5</f>
+        <v>3.2</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
       <c r="P50">
         <f>SQRT(8)</f>
         <v>2.8284271247461903</v>
@@ -2777,6 +2860,24 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="51" spans="1:21">
+      <c r="J51" s="11">
+        <f>J50/SUM($J$50:$M$50)</f>
+        <v>0.79207920792079212</v>
+      </c>
+      <c r="K51" s="11">
+        <f>K50/SUM($J$50:$M$50)</f>
+        <v>0.15841584158415842</v>
+      </c>
+      <c r="L51" s="11">
+        <f>L50/SUM($J$50:$M$50)</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="M51" s="11">
+        <f>M50/SUM($J$50:$M$50)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>119</v>
@@ -2855,7 +2956,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="P54">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <f>1/4/4</f>
@@ -2953,19 +3054,19 @@
       </c>
       <c r="Q56" s="14">
         <f t="shared" ref="Q56:Q65" si="5">POWER(R$54,(P56)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>3.125E-2</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56:R65" si="6">POWER(R$54,(P56)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56:S65" si="7">(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T56" s="15">
         <f>Q56*60</f>
-        <v>1.875</v>
+        <v>30</v>
       </c>
       <c r="U56" t="s">
         <v>146</v>
@@ -3014,19 +3115,19 @@
       </c>
       <c r="Q57" s="14">
         <f t="shared" si="5"/>
-        <v>3.8473262917028642E-2</v>
+        <v>0.61557220667245827</v>
       </c>
       <c r="R57">
         <f t="shared" si="6"/>
-        <v>3.0778610333622912E-2</v>
+        <v>0.12311444133449165</v>
       </c>
       <c r="S57">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T57" s="15">
         <f t="shared" ref="T57:T86" si="8">Q57*60</f>
-        <v>2.3083957750217183</v>
+        <v>36.934332400347493</v>
       </c>
       <c r="U57" t="s">
         <v>147</v>
@@ -3075,19 +3176,19 @@
       </c>
       <c r="Q58" s="14">
         <f t="shared" si="5"/>
-        <v>4.7366142703449944E-2</v>
+        <v>0.75785828325519911</v>
       </c>
       <c r="R58">
         <f t="shared" si="6"/>
-        <v>3.7892914162759958E-2</v>
+        <v>0.15157165665103983</v>
       </c>
       <c r="S58">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T58" s="15">
         <f t="shared" si="8"/>
-        <v>2.8419685622069966</v>
+        <v>45.471496995311945</v>
       </c>
       <c r="U58" t="s">
         <v>148</v>
@@ -3136,19 +3237,19 @@
       </c>
       <c r="Q59" s="14">
         <f t="shared" si="5"/>
-        <v>5.8314561971050477E-2</v>
+        <v>0.93303299153680763</v>
       </c>
       <c r="R59">
         <f t="shared" si="6"/>
-        <v>4.6651649576840384E-2</v>
+        <v>0.18660659830736154</v>
       </c>
       <c r="S59">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T59" s="15">
         <f t="shared" si="8"/>
-        <v>3.4988737182630287</v>
+        <v>55.98197949220846</v>
       </c>
       <c r="U59" t="s">
         <v>149</v>
@@ -3197,19 +3298,19 @@
       </c>
       <c r="Q60" s="14">
         <f t="shared" si="5"/>
-        <v>7.1793647187314694E-2</v>
+        <v>1.1486983549970351</v>
       </c>
       <c r="R60">
         <f t="shared" si="6"/>
-        <v>5.7434917749851752E-2</v>
+        <v>0.22973967099940701</v>
       </c>
       <c r="S60">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T60" s="15">
         <f t="shared" si="8"/>
-        <v>4.3076188312388819</v>
+        <v>68.92190129982211</v>
       </c>
       <c r="U60" t="s">
         <v>150</v>
@@ -3258,19 +3359,19 @@
       </c>
       <c r="Q61" s="14">
         <f t="shared" si="5"/>
-        <v>8.8388347648318433E-2</v>
+        <v>1.4142135623730949</v>
       </c>
       <c r="R61">
         <f t="shared" si="6"/>
-        <v>7.0710678118654752E-2</v>
+        <v>0.28284271247461901</v>
       </c>
       <c r="S61">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T61" s="15">
         <f t="shared" si="8"/>
-        <v>5.3033008588991057</v>
+        <v>84.852813742385692</v>
       </c>
       <c r="U61" t="s">
         <v>171</v>
@@ -3319,19 +3420,19 @@
       </c>
       <c r="Q62" s="14">
         <f t="shared" si="5"/>
-        <v>0.10881882041201552</v>
+        <v>1.7411011265922482</v>
       </c>
       <c r="R62">
         <f t="shared" si="6"/>
-        <v>8.7055056329612412E-2</v>
+        <v>0.34822022531844965</v>
       </c>
       <c r="S62">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T62" s="15">
         <f t="shared" si="8"/>
-        <v>6.5291292247209309</v>
+        <v>104.46606759553489</v>
       </c>
       <c r="U62" t="s">
         <v>127</v>
@@ -3380,19 +3481,19 @@
       </c>
       <c r="Q63" s="14">
         <f t="shared" si="5"/>
-        <v>0.13397168281703664</v>
+        <v>2.1435469250725863</v>
       </c>
       <c r="R63">
         <f t="shared" si="6"/>
-        <v>0.10717734625362932</v>
+        <v>0.42870938501451727</v>
       </c>
       <c r="S63">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T63" s="15">
         <f t="shared" si="8"/>
-        <v>8.0383009690221989</v>
+        <v>128.61281550435518</v>
       </c>
       <c r="U63" t="s">
         <v>125</v>
@@ -3441,19 +3542,19 @@
       </c>
       <c r="Q64" s="14">
         <f t="shared" si="5"/>
-        <v>0.1649384888466118</v>
+        <v>2.6390158215457888</v>
       </c>
       <c r="R64">
         <f t="shared" si="6"/>
-        <v>0.13195079107728944</v>
+        <v>0.52780316430915775</v>
       </c>
       <c r="S64">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T64" s="15">
         <f t="shared" si="8"/>
-        <v>9.8963093307967078</v>
+        <v>158.34094929274733</v>
       </c>
       <c r="U64" t="s">
         <v>126</v>
@@ -3502,19 +3603,19 @@
       </c>
       <c r="Q65" s="14">
         <f t="shared" si="5"/>
-        <v>0.20306309908905887</v>
+        <v>3.2490095854249419</v>
       </c>
       <c r="R65">
         <f t="shared" si="6"/>
-        <v>0.16245047927124709</v>
+        <v>0.64980191708498836</v>
       </c>
       <c r="S65">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T65" s="15">
         <f t="shared" si="8"/>
-        <v>12.183785945343532</v>
+        <v>194.94057512549651</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -3558,19 +3659,19 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="10">
         <f t="shared" ref="Q66:Q86" si="9">POWER(R$54,(P66)/100)/(POWER(R$54,P$66)*Q$54*P$54*4)</f>
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="R66">
         <f t="shared" ref="R66:R86" si="10">POWER(R$54,(P66)/100)/(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="S66">
         <f t="shared" ref="S66:S86" si="11">(POWER(R$54,P$66)*Q$54*P$54*4+1)</f>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T66" s="15">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -3616,19 +3717,19 @@
       </c>
       <c r="Q67" s="8">
         <f t="shared" si="9"/>
-        <v>0.30778610333622908</v>
+        <v>4.9245776533796652</v>
       </c>
       <c r="R67">
         <f t="shared" si="10"/>
-        <v>0.24622888266898327</v>
+        <v>0.98491553067593307</v>
       </c>
       <c r="S67">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T67" s="15">
         <f t="shared" si="8"/>
-        <v>18.467166200173743</v>
+        <v>295.47465920277989</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -3674,19 +3775,19 @@
       </c>
       <c r="Q68" s="8">
         <f t="shared" si="9"/>
-        <v>0.3789291416275995</v>
+        <v>6.062866266041592</v>
       </c>
       <c r="R68">
         <f t="shared" si="10"/>
-        <v>0.30314331330207961</v>
+        <v>1.2125732532083184</v>
       </c>
       <c r="S68">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T68" s="15">
         <f t="shared" si="8"/>
-        <v>22.735748497655969</v>
+        <v>363.7719759624955</v>
       </c>
       <c r="U68" t="s">
         <v>138</v>
@@ -3735,19 +3836,19 @@
       </c>
       <c r="Q69" s="8">
         <f t="shared" si="9"/>
-        <v>0.46651649576840371</v>
+        <v>7.4642639322944593</v>
       </c>
       <c r="R69">
         <f t="shared" si="10"/>
-        <v>0.37321319661472296</v>
+        <v>1.4928527864588919</v>
       </c>
       <c r="S69">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T69" s="15">
         <f t="shared" si="8"/>
-        <v>27.990989746104223</v>
+        <v>447.85583593766756</v>
       </c>
       <c r="U69" t="s">
         <v>139</v>
@@ -3796,19 +3897,19 @@
       </c>
       <c r="Q70" s="8">
         <f t="shared" si="9"/>
-        <v>0.57434917749851755</v>
+        <v>9.1895868399762808</v>
       </c>
       <c r="R70">
         <f t="shared" si="10"/>
-        <v>0.45947934199881402</v>
+        <v>1.8379173679952561</v>
       </c>
       <c r="S70">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T70" s="15">
         <f t="shared" si="8"/>
-        <v>34.460950649911055</v>
+        <v>551.37521039857688</v>
       </c>
       <c r="U70" t="s">
         <v>140</v>
@@ -3857,19 +3958,19 @@
       </c>
       <c r="Q71" s="8">
         <f t="shared" si="9"/>
-        <v>0.70710678118654757</v>
+        <v>11.313708498984761</v>
       </c>
       <c r="R71">
         <f t="shared" si="10"/>
-        <v>0.56568542494923801</v>
+        <v>2.2627416997969521</v>
       </c>
       <c r="S71">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T71" s="16">
         <f t="shared" si="8"/>
-        <v>42.426406871192853</v>
+        <v>678.82250993908565</v>
       </c>
       <c r="U71" t="s">
         <v>141</v>
@@ -3918,19 +4019,19 @@
       </c>
       <c r="Q72" s="8">
         <f t="shared" si="9"/>
-        <v>0.87055056329612412</v>
+        <v>13.928809012737986</v>
       </c>
       <c r="R72">
         <f t="shared" si="10"/>
-        <v>0.6964404506368993</v>
+        <v>2.7857618025475972</v>
       </c>
       <c r="S72">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T72" s="15">
         <f t="shared" si="8"/>
-        <v>52.233033797767447</v>
+        <v>835.72854076427916</v>
       </c>
       <c r="U72" t="s">
         <v>142</v>
@@ -3979,19 +4080,19 @@
       </c>
       <c r="Q73" s="8">
         <f t="shared" si="9"/>
-        <v>1.0717734625362929</v>
+        <v>17.148375400580687</v>
       </c>
       <c r="R73">
         <f t="shared" si="10"/>
-        <v>0.85741877002903433</v>
+        <v>3.4296750801161373</v>
       </c>
       <c r="S73">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T73" s="15">
         <f t="shared" si="8"/>
-        <v>64.306407752177577</v>
+        <v>1028.9025240348412</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -4037,19 +4138,19 @@
       </c>
       <c r="Q74" s="8">
         <f t="shared" si="9"/>
-        <v>1.3195079107728942</v>
+        <v>21.112126572366307</v>
       </c>
       <c r="R74">
         <f t="shared" si="10"/>
-        <v>1.0556063286183153</v>
+        <v>4.2224253144732611</v>
       </c>
       <c r="S74">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T74" s="16">
         <f t="shared" si="8"/>
-        <v>79.170474646373648</v>
+        <v>1266.7275943419784</v>
       </c>
       <c r="U74" t="s">
         <v>143</v>
@@ -4098,19 +4199,19 @@
       </c>
       <c r="Q75" s="8">
         <f t="shared" si="9"/>
-        <v>1.6245047927124707</v>
+        <v>25.992076683399532</v>
       </c>
       <c r="R75">
         <f t="shared" si="10"/>
-        <v>1.2996038341699765</v>
+        <v>5.198415336679906</v>
       </c>
       <c r="S75">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T75" s="15">
         <f t="shared" si="8"/>
-        <v>97.47028756274824</v>
+        <v>1559.5246010039718</v>
       </c>
       <c r="U75" t="s">
         <v>144</v>
@@ -4159,19 +4260,19 @@
       </c>
       <c r="Q76" s="9">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="R76">
         <f t="shared" si="10"/>
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="S76">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T76" s="15">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>1920</v>
       </c>
       <c r="U76" t="s">
         <v>145</v>
@@ -4183,19 +4284,19 @@
       </c>
       <c r="Q77" s="8">
         <f t="shared" si="9"/>
-        <v>2.4622888266898322</v>
+        <v>39.396621227037315</v>
       </c>
       <c r="R77">
         <f t="shared" si="10"/>
-        <v>1.9698310613518657</v>
+        <v>7.8793242454074628</v>
       </c>
       <c r="S77">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T77" s="15">
         <f t="shared" si="8"/>
-        <v>147.73732960138994</v>
+        <v>2363.7972736222391</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -4204,19 +4305,19 @@
       </c>
       <c r="Q78" s="8">
         <f t="shared" si="9"/>
-        <v>3.031433133020796</v>
+        <v>48.502930128332736</v>
       </c>
       <c r="R78">
         <f t="shared" si="10"/>
-        <v>2.4251465064166369</v>
+        <v>9.7005860256665475</v>
       </c>
       <c r="S78">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T78" s="15">
         <f t="shared" si="8"/>
-        <v>181.88598798124775</v>
+        <v>2910.175807699964</v>
       </c>
       <c r="V78" t="s">
         <v>174</v>
@@ -4231,19 +4332,19 @@
       </c>
       <c r="Q79" s="8">
         <f t="shared" si="9"/>
-        <v>3.7321319661472292</v>
+        <v>59.714111458355667</v>
       </c>
       <c r="R79">
         <f t="shared" si="10"/>
-        <v>2.9857055729177833</v>
+        <v>11.942822291671133</v>
       </c>
       <c r="S79">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T79" s="15">
         <f t="shared" si="8"/>
-        <v>223.92791796883375</v>
+        <v>3582.8466875013401</v>
       </c>
       <c r="V79" t="s">
         <v>173</v>
@@ -4258,19 +4359,19 @@
       </c>
       <c r="Q80" s="8">
         <f t="shared" si="9"/>
-        <v>4.5947934199881377</v>
+        <v>73.516694719810204</v>
       </c>
       <c r="R80">
         <f t="shared" si="10"/>
-        <v>3.6758347359905104</v>
+        <v>14.703338943962041</v>
       </c>
       <c r="S80">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T80" s="15">
         <f t="shared" si="8"/>
-        <v>275.68760519928827</v>
+        <v>4411.0016831886123</v>
       </c>
       <c r="V80" t="s">
         <v>196</v>
@@ -4285,19 +4386,19 @@
       </c>
       <c r="Q81" s="8">
         <f t="shared" si="9"/>
-        <v>5.656854249492377</v>
+        <v>90.509667991878032</v>
       </c>
       <c r="R81">
         <f t="shared" si="10"/>
-        <v>4.5254833995939014</v>
+        <v>18.101933598375606</v>
       </c>
       <c r="S81">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T81" s="15">
         <f t="shared" si="8"/>
-        <v>339.4112549695426</v>
+        <v>5430.5800795126816</v>
       </c>
       <c r="Y81" t="s">
         <v>198</v>
@@ -4309,19 +4410,19 @@
       </c>
       <c r="Q82" s="8">
         <f t="shared" si="9"/>
-        <v>6.964404506368993</v>
+        <v>111.43047210190389</v>
       </c>
       <c r="R82">
         <f t="shared" si="10"/>
-        <v>5.5715236050951944</v>
+        <v>22.286094420380778</v>
       </c>
       <c r="S82">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T82" s="15">
         <f t="shared" si="8"/>
-        <v>417.86427038213958</v>
+        <v>6685.8283261142333</v>
       </c>
       <c r="V82" t="s">
         <v>175</v>
@@ -4336,19 +4437,19 @@
       </c>
       <c r="Q83" s="8">
         <f t="shared" si="9"/>
-        <v>8.5741877002903415</v>
+        <v>137.18700320464546</v>
       </c>
       <c r="R83">
         <f t="shared" si="10"/>
-        <v>6.8593501602322728</v>
+        <v>27.437400640929091</v>
       </c>
       <c r="S83">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T83" s="15">
         <f t="shared" si="8"/>
-        <v>514.4512620174205</v>
+        <v>8231.2201922787281</v>
       </c>
       <c r="V83" t="s">
         <v>176</v>
@@ -4360,19 +4461,19 @@
       </c>
       <c r="Q84" s="8">
         <f t="shared" si="9"/>
-        <v>10.55606328618315</v>
+        <v>168.8970125789304</v>
       </c>
       <c r="R84">
         <f t="shared" si="10"/>
-        <v>8.4448506289465204</v>
+        <v>33.779402515786082</v>
       </c>
       <c r="S84">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T84" s="15">
         <f t="shared" si="8"/>
-        <v>633.36379717098896</v>
+        <v>10133.820754735823</v>
       </c>
       <c r="V84" t="s">
         <v>177</v>
@@ -4384,19 +4485,19 @@
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="9"/>
-        <v>12.996038341699764</v>
+        <v>207.93661346719622</v>
       </c>
       <c r="R85">
         <f t="shared" si="10"/>
-        <v>10.396830673359812</v>
+        <v>41.587322693439248</v>
       </c>
       <c r="S85">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T85" s="15">
         <f t="shared" si="8"/>
-        <v>779.76230050198581</v>
+        <v>12476.196808031773</v>
       </c>
     </row>
     <row r="86" spans="16:25">
@@ -4405,19 +4506,19 @@
       </c>
       <c r="Q86" s="8">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="R86">
         <f t="shared" si="10"/>
-        <v>12.8</v>
+        <v>51.2</v>
       </c>
       <c r="S86">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="T86" s="15">
         <f t="shared" si="8"/>
-        <v>960</v>
+        <v>15360</v>
       </c>
       <c r="V86" t="s">
         <v>188</v>
@@ -4431,6 +4532,55 @@
     <row r="88" spans="16:25">
       <c r="V88" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="23:26">
+      <c r="X100">
+        <v>2</v>
+      </c>
+      <c r="Y100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="23:26">
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101">
+        <v>1</v>
+      </c>
+      <c r="Y101">
+        <v>1</v>
+      </c>
+      <c r="Z101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="23:26">
+      <c r="Z103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="23:26">
+      <c r="X104">
+        <v>4</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="23:26">
+      <c r="X105">
+        <v>8</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
